--- a/data/data_final/data_tax_base.xlsx
+++ b/data/data_final/data_tax_base.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="117">
   <si>
     <t>Year</t>
   </si>
@@ -435,8 +435,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:M2108" totalsRowShown="0">
-  <autoFilter ref="A1:M2108"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:M2112" totalsRowShown="0">
+  <autoFilter ref="A1:M2112"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Year" dataDxfId="0"/>
     <tableColumn id="2" name="Municipality" dataDxfId="1"/>
@@ -741,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2108"/>
+  <dimension ref="A1:M2112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23402,37 +23402,37 @@
         <v>50</v>
       </c>
       <c r="C553" s="2">
-        <v>102569700</v>
+        <v>103165300</v>
       </c>
       <c r="D553" s="2">
-        <v>457100</v>
+        <v>552000</v>
       </c>
       <c r="E553" s="2">
-        <v>5542700</v>
+        <v>5635600</v>
       </c>
       <c r="F553" s="2">
-        <v>108569500</v>
+        <v>109352900</v>
       </c>
       <c r="G553" s="2">
         <v>15022300</v>
       </c>
       <c r="H553" s="2">
-        <v>799400</v>
+        <v>866300</v>
       </c>
       <c r="I553" s="2">
         <v>1690700</v>
       </c>
       <c r="J553" s="2">
-        <v>17512400</v>
+        <v>17579300</v>
       </c>
       <c r="K553" s="2">
-        <v>126081900</v>
+        <v>126932200</v>
       </c>
       <c r="L553" s="2">
-        <v>134838100</v>
+        <v>135721850</v>
       </c>
       <c r="M553" s="2">
-        <v>134799014</v>
+        <v>135682764</v>
       </c>
     </row>
     <row r="554" spans="1:13">
@@ -23440,40 +23440,40 @@
         <v>2005</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C554" s="2">
-        <v>20854200</v>
+        <v>20258600</v>
       </c>
       <c r="D554" s="2">
-        <v>94900</v>
+        <v>0</v>
       </c>
       <c r="E554" s="2">
-        <v>3699600</v>
+        <v>3606700</v>
       </c>
       <c r="F554" s="2">
-        <v>24648700</v>
+        <v>23865300</v>
       </c>
       <c r="G554" s="2">
         <v>4262700</v>
       </c>
       <c r="H554" s="2">
-        <v>149200</v>
+        <v>82300</v>
       </c>
       <c r="I554" s="2">
         <v>472300</v>
       </c>
       <c r="J554" s="2">
-        <v>4884200</v>
+        <v>4817300</v>
       </c>
       <c r="K554" s="2">
-        <v>29532900</v>
+        <v>28682600</v>
       </c>
       <c r="L554" s="2">
-        <v>31975000</v>
+        <v>31091250</v>
       </c>
       <c r="M554" s="2">
-        <v>31954125</v>
+        <v>31070375</v>
       </c>
     </row>
     <row r="555" spans="1:13">
@@ -83464,40 +83464,40 @@
         <v>2020</v>
       </c>
       <c r="B2018" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2018" s="2">
-        <v>4542953800</v>
+        <v>577837200</v>
       </c>
       <c r="D2018" s="2">
-        <v>3551000</v>
+        <v>0</v>
       </c>
       <c r="E2018" s="2">
-        <v>889975800</v>
+        <v>204793700</v>
       </c>
       <c r="F2018" s="2">
-        <v>5436480600</v>
+        <v>782630900</v>
       </c>
       <c r="G2018" s="2">
-        <v>1210372700</v>
+        <v>168886500</v>
       </c>
       <c r="H2018" s="2">
-        <v>51866900</v>
+        <v>16261000</v>
       </c>
       <c r="I2018" s="2">
-        <v>198074100</v>
+        <v>12730100</v>
       </c>
       <c r="J2018" s="2">
-        <v>1460313700</v>
+        <v>197877600</v>
       </c>
       <c r="K2018" s="2">
-        <v>6896794300</v>
+        <v>980508500</v>
       </c>
       <c r="L2018" s="2">
-        <v>7626951150</v>
+        <v>1079447300</v>
       </c>
       <c r="M2018" s="2">
-        <v>7601756637</v>
+        <v>1079066793</v>
       </c>
     </row>
     <row r="2019" spans="1:13">
@@ -83505,40 +83505,40 @@
         <v>2020</v>
       </c>
       <c r="B2019" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2019" s="2">
-        <v>882218100</v>
+        <v>350089200</v>
       </c>
       <c r="D2019" s="2">
         <v>0</v>
       </c>
       <c r="E2019" s="2">
-        <v>227756200</v>
+        <v>165123800</v>
       </c>
       <c r="F2019" s="2">
-        <v>1109974300</v>
+        <v>515213000</v>
       </c>
       <c r="G2019" s="2">
-        <v>267148400</v>
+        <v>52816600</v>
       </c>
       <c r="H2019" s="2">
-        <v>4798400</v>
+        <v>787700</v>
       </c>
       <c r="I2019" s="2">
-        <v>15685200</v>
+        <v>3986000</v>
       </c>
       <c r="J2019" s="2">
-        <v>287632000</v>
+        <v>57590300</v>
       </c>
       <c r="K2019" s="2">
-        <v>1397606300</v>
+        <v>572803300</v>
       </c>
       <c r="L2019" s="2">
-        <v>1541422300</v>
+        <v>601598450</v>
       </c>
       <c r="M2019" s="2">
-        <v>1541422300</v>
+        <v>601598450</v>
       </c>
     </row>
     <row r="2020" spans="1:13">
@@ -83546,40 +83546,40 @@
         <v>2020</v>
       </c>
       <c r="B2020" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C2020" s="2">
-        <v>4808852600</v>
+        <v>2006515300</v>
       </c>
       <c r="D2020" s="2">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="E2020" s="2">
-        <v>850112400</v>
+        <v>111677400</v>
       </c>
       <c r="F2020" s="2">
-        <v>5658965000</v>
+        <v>2118262700</v>
       </c>
       <c r="G2020" s="2">
-        <v>1990145400</v>
+        <v>758755300</v>
       </c>
       <c r="H2020" s="2">
-        <v>36097100</v>
+        <v>9284200</v>
       </c>
       <c r="I2020" s="2">
-        <v>9231200</v>
+        <v>2026400</v>
       </c>
       <c r="J2020" s="2">
-        <v>2035473700</v>
+        <v>770065900</v>
       </c>
       <c r="K2020" s="2">
-        <v>7694438700</v>
+        <v>2888328600</v>
       </c>
       <c r="L2020" s="2">
-        <v>8712175550</v>
+        <v>3273361550</v>
       </c>
       <c r="M2020" s="2">
-        <v>8712175550</v>
+        <v>3272404203</v>
       </c>
     </row>
     <row r="2021" spans="1:13">
@@ -83587,40 +83587,40 @@
         <v>2020</v>
       </c>
       <c r="B2021" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C2021" s="2">
-        <v>21259914580</v>
+        <v>861625300</v>
       </c>
       <c r="D2021" s="2">
-        <v>5324400</v>
+        <v>0</v>
       </c>
       <c r="E2021" s="2">
-        <v>4008416700</v>
+        <v>240430200</v>
       </c>
       <c r="F2021" s="2">
-        <v>25273655680</v>
+        <v>1102055500</v>
       </c>
       <c r="G2021" s="2">
-        <v>8064993900</v>
+        <v>218088000</v>
       </c>
       <c r="H2021" s="2">
-        <v>244183400</v>
+        <v>5251300</v>
       </c>
       <c r="I2021" s="2">
-        <v>435791500</v>
+        <v>9145500</v>
       </c>
       <c r="J2021" s="2">
-        <v>8744968800</v>
+        <v>232484800</v>
       </c>
       <c r="K2021" s="2">
-        <v>34018624480</v>
+        <v>1334540300</v>
       </c>
       <c r="L2021" s="2">
-        <v>38391108880</v>
+        <v>1450782700</v>
       </c>
       <c r="M2021" s="2">
-        <v>38359259776</v>
+        <v>1450782700</v>
       </c>
     </row>
     <row r="2022" spans="1:13">
@@ -83628,40 +83628,40 @@
         <v>2020</v>
       </c>
       <c r="B2022" s="3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C2022" s="2">
-        <v>237053900</v>
+        <v>4542953800</v>
       </c>
       <c r="D2022" s="2">
-        <v>0</v>
+        <v>3551000</v>
       </c>
       <c r="E2022" s="2">
-        <v>7004200</v>
+        <v>889975800</v>
       </c>
       <c r="F2022" s="2">
-        <v>244058100</v>
+        <v>5436480600</v>
       </c>
       <c r="G2022" s="2">
-        <v>29525400</v>
+        <v>1210372700</v>
       </c>
       <c r="H2022" s="2">
-        <v>108100</v>
+        <v>51866900</v>
       </c>
       <c r="I2022" s="2">
-        <v>0</v>
+        <v>198074100</v>
       </c>
       <c r="J2022" s="2">
-        <v>29633500</v>
+        <v>1460313700</v>
       </c>
       <c r="K2022" s="2">
-        <v>273691600</v>
+        <v>6896794300</v>
       </c>
       <c r="L2022" s="2">
-        <v>288508350</v>
+        <v>7626951150</v>
       </c>
       <c r="M2022" s="2">
-        <v>288508350</v>
+        <v>7601756637</v>
       </c>
     </row>
     <row r="2023" spans="1:13">
@@ -83669,40 +83669,40 @@
         <v>2020</v>
       </c>
       <c r="B2023" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C2023" s="2">
-        <v>140396400</v>
+        <v>882218100</v>
       </c>
       <c r="D2023" s="2">
         <v>0</v>
       </c>
       <c r="E2023" s="2">
-        <v>25313400</v>
+        <v>227756200</v>
       </c>
       <c r="F2023" s="2">
-        <v>165709800</v>
+        <v>1109974300</v>
       </c>
       <c r="G2023" s="2">
-        <v>34888900</v>
+        <v>267148400</v>
       </c>
       <c r="H2023" s="2">
-        <v>422600</v>
+        <v>4798400</v>
       </c>
       <c r="I2023" s="2">
-        <v>2881300</v>
+        <v>15685200</v>
       </c>
       <c r="J2023" s="2">
-        <v>38192800</v>
+        <v>287632000</v>
       </c>
       <c r="K2023" s="2">
-        <v>203902600</v>
+        <v>1397606300</v>
       </c>
       <c r="L2023" s="2">
-        <v>222999000</v>
+        <v>1541422300</v>
       </c>
       <c r="M2023" s="2">
-        <v>222999000</v>
+        <v>1541422300</v>
       </c>
     </row>
     <row r="2024" spans="1:13">
@@ -83710,40 +83710,40 @@
         <v>2020</v>
       </c>
       <c r="B2024" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C2024" s="2">
-        <v>271301400</v>
+        <v>4808852600</v>
       </c>
       <c r="D2024" s="2">
-        <v>403400</v>
+        <v>0</v>
       </c>
       <c r="E2024" s="2">
-        <v>39378600</v>
+        <v>850112400</v>
       </c>
       <c r="F2024" s="2">
-        <v>311083400</v>
+        <v>5658965000</v>
       </c>
       <c r="G2024" s="2">
-        <v>53162200</v>
+        <v>1990145400</v>
       </c>
       <c r="H2024" s="2">
-        <v>646200</v>
+        <v>36097100</v>
       </c>
       <c r="I2024" s="2">
-        <v>1161100</v>
+        <v>9231200</v>
       </c>
       <c r="J2024" s="2">
-        <v>54969500</v>
+        <v>2035473700</v>
       </c>
       <c r="K2024" s="2">
-        <v>366052900</v>
+        <v>7694438700</v>
       </c>
       <c r="L2024" s="2">
-        <v>393537650</v>
+        <v>8712175550</v>
       </c>
       <c r="M2024" s="2">
-        <v>393537650</v>
+        <v>8712175550</v>
       </c>
     </row>
     <row r="2025" spans="1:13">
@@ -83751,40 +83751,40 @@
         <v>2020</v>
       </c>
       <c r="B2025" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2025" s="2">
-        <v>112056400</v>
+        <v>21259914580</v>
       </c>
       <c r="D2025" s="2">
-        <v>0</v>
+        <v>5324400</v>
       </c>
       <c r="E2025" s="2">
-        <v>51656900</v>
+        <v>4008416700</v>
       </c>
       <c r="F2025" s="2">
-        <v>163713300</v>
+        <v>25273655680</v>
       </c>
       <c r="G2025" s="2">
-        <v>24036300</v>
+        <v>8064993900</v>
       </c>
       <c r="H2025" s="2">
-        <v>560000</v>
+        <v>244183400</v>
       </c>
       <c r="I2025" s="2">
-        <v>19057500</v>
+        <v>435791500</v>
       </c>
       <c r="J2025" s="2">
-        <v>43653800</v>
+        <v>8744968800</v>
       </c>
       <c r="K2025" s="2">
-        <v>207367100</v>
+        <v>34018624480</v>
       </c>
       <c r="L2025" s="2">
-        <v>229194000</v>
+        <v>38391108880</v>
       </c>
       <c r="M2025" s="2">
-        <v>229194000</v>
+        <v>38359259776</v>
       </c>
     </row>
     <row r="2026" spans="1:13">
@@ -83792,40 +83792,40 @@
         <v>2020</v>
       </c>
       <c r="B2026" s="3" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="C2026" s="2">
-        <v>87475100</v>
+        <v>237053900</v>
       </c>
       <c r="D2026" s="2">
         <v>0</v>
       </c>
       <c r="E2026" s="2">
-        <v>15359000</v>
+        <v>7004200</v>
       </c>
       <c r="F2026" s="2">
-        <v>102834100</v>
+        <v>244058100</v>
       </c>
       <c r="G2026" s="2">
-        <v>79097100</v>
+        <v>29525400</v>
       </c>
       <c r="H2026" s="2">
-        <v>266300</v>
+        <v>108100</v>
       </c>
       <c r="I2026" s="2">
-        <v>1105400</v>
+        <v>0</v>
       </c>
       <c r="J2026" s="2">
-        <v>80468800</v>
+        <v>29633500</v>
       </c>
       <c r="K2026" s="2">
-        <v>183302900</v>
+        <v>273691600</v>
       </c>
       <c r="L2026" s="2">
-        <v>223537300</v>
+        <v>288508350</v>
       </c>
       <c r="M2026" s="2">
-        <v>223537300</v>
+        <v>288508350</v>
       </c>
     </row>
     <row r="2027" spans="1:13">
@@ -83833,40 +83833,40 @@
         <v>2020</v>
       </c>
       <c r="B2027" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C2027" s="2">
-        <v>354817300</v>
+        <v>140396400</v>
       </c>
       <c r="D2027" s="2">
         <v>0</v>
       </c>
       <c r="E2027" s="2">
-        <v>14015100</v>
+        <v>25313400</v>
       </c>
       <c r="F2027" s="2">
-        <v>368832400</v>
+        <v>165709800</v>
       </c>
       <c r="G2027" s="2">
-        <v>8041700</v>
+        <v>34888900</v>
       </c>
       <c r="H2027" s="2">
-        <v>1031100</v>
+        <v>422600</v>
       </c>
       <c r="I2027" s="2">
-        <v>52500</v>
+        <v>2881300</v>
       </c>
       <c r="J2027" s="2">
-        <v>9125300</v>
+        <v>38192800</v>
       </c>
       <c r="K2027" s="2">
-        <v>377957700</v>
+        <v>203902600</v>
       </c>
       <c r="L2027" s="2">
-        <v>382520350</v>
+        <v>222999000</v>
       </c>
       <c r="M2027" s="2">
-        <v>382520350</v>
+        <v>222999000</v>
       </c>
     </row>
     <row r="2028" spans="1:13">
@@ -83874,40 +83874,40 @@
         <v>2020</v>
       </c>
       <c r="B2028" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2028" s="2">
-        <v>309082400</v>
+        <v>271301400</v>
       </c>
       <c r="D2028" s="2">
-        <v>0</v>
+        <v>403400</v>
       </c>
       <c r="E2028" s="2">
-        <v>63186100</v>
+        <v>39378600</v>
       </c>
       <c r="F2028" s="2">
-        <v>372268500</v>
+        <v>311083400</v>
       </c>
       <c r="G2028" s="2">
-        <v>116320000</v>
+        <v>53162200</v>
       </c>
       <c r="H2028" s="2">
-        <v>2654500</v>
+        <v>646200</v>
       </c>
       <c r="I2028" s="2">
-        <v>2704100</v>
+        <v>1161100</v>
       </c>
       <c r="J2028" s="2">
-        <v>121678600</v>
+        <v>54969500</v>
       </c>
       <c r="K2028" s="2">
-        <v>493947100</v>
+        <v>366052900</v>
       </c>
       <c r="L2028" s="2">
-        <v>554786400</v>
+        <v>393537650</v>
       </c>
       <c r="M2028" s="2">
-        <v>554786400</v>
+        <v>393537650</v>
       </c>
     </row>
     <row r="2029" spans="1:13">
@@ -83915,40 +83915,40 @@
         <v>2020</v>
       </c>
       <c r="B2029" s="3" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C2029" s="2">
-        <v>310798300</v>
+        <v>112056400</v>
       </c>
       <c r="D2029" s="2">
         <v>0</v>
       </c>
       <c r="E2029" s="2">
-        <v>22473900</v>
+        <v>51656900</v>
       </c>
       <c r="F2029" s="2">
-        <v>333272200</v>
+        <v>163713300</v>
       </c>
       <c r="G2029" s="2">
-        <v>21850400</v>
+        <v>24036300</v>
       </c>
       <c r="H2029" s="2">
-        <v>1625400</v>
+        <v>560000</v>
       </c>
       <c r="I2029" s="2">
-        <v>976600</v>
+        <v>19057500</v>
       </c>
       <c r="J2029" s="2">
-        <v>24452400</v>
+        <v>43653800</v>
       </c>
       <c r="K2029" s="2">
-        <v>357724600</v>
+        <v>207367100</v>
       </c>
       <c r="L2029" s="2">
-        <v>369950800</v>
+        <v>229194000</v>
       </c>
       <c r="M2029" s="2">
-        <v>369950800</v>
+        <v>229194000</v>
       </c>
     </row>
     <row r="2030" spans="1:13">
@@ -83956,40 +83956,40 @@
         <v>2020</v>
       </c>
       <c r="B2030" s="3" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="C2030" s="2">
-        <v>44278600</v>
+        <v>87475100</v>
       </c>
       <c r="D2030" s="2">
         <v>0</v>
       </c>
       <c r="E2030" s="2">
-        <v>11465400</v>
+        <v>15359000</v>
       </c>
       <c r="F2030" s="2">
-        <v>55744000</v>
+        <v>102834100</v>
       </c>
       <c r="G2030" s="2">
-        <v>19667300</v>
+        <v>79097100</v>
       </c>
       <c r="H2030" s="2">
-        <v>111300</v>
+        <v>266300</v>
       </c>
       <c r="I2030" s="2">
-        <v>23000</v>
+        <v>1105400</v>
       </c>
       <c r="J2030" s="2">
-        <v>19801600</v>
+        <v>80468800</v>
       </c>
       <c r="K2030" s="2">
-        <v>75545600</v>
+        <v>183302900</v>
       </c>
       <c r="L2030" s="2">
-        <v>85446400</v>
+        <v>223537300</v>
       </c>
       <c r="M2030" s="2">
-        <v>85446400</v>
+        <v>223537300</v>
       </c>
     </row>
     <row r="2031" spans="1:13">
@@ -83997,40 +83997,40 @@
         <v>2020</v>
       </c>
       <c r="B2031" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C2031" s="2">
-        <v>60215000</v>
+        <v>354817300</v>
       </c>
       <c r="D2031" s="2">
-        <v>686000</v>
+        <v>0</v>
       </c>
       <c r="E2031" s="2">
-        <v>12291300</v>
+        <v>14015100</v>
       </c>
       <c r="F2031" s="2">
-        <v>73192300</v>
+        <v>368832400</v>
       </c>
       <c r="G2031" s="2">
-        <v>15696100</v>
+        <v>8041700</v>
       </c>
       <c r="H2031" s="2">
-        <v>466400</v>
+        <v>1031100</v>
       </c>
       <c r="I2031" s="2">
-        <v>818700</v>
+        <v>52500</v>
       </c>
       <c r="J2031" s="2">
-        <v>16981200</v>
+        <v>9125300</v>
       </c>
       <c r="K2031" s="2">
-        <v>90173500</v>
+        <v>377957700</v>
       </c>
       <c r="L2031" s="2">
-        <v>98664100</v>
+        <v>382520350</v>
       </c>
       <c r="M2031" s="2">
-        <v>98664100</v>
+        <v>382520350</v>
       </c>
     </row>
     <row r="2032" spans="1:13">
@@ -84038,40 +84038,40 @@
         <v>2020</v>
       </c>
       <c r="B2032" s="3" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C2032" s="2">
-        <v>45329700</v>
+        <v>309082400</v>
       </c>
       <c r="D2032" s="2">
-        <v>360300</v>
+        <v>0</v>
       </c>
       <c r="E2032" s="2">
-        <v>14592100</v>
+        <v>63186100</v>
       </c>
       <c r="F2032" s="2">
-        <v>60282100</v>
+        <v>372268500</v>
       </c>
       <c r="G2032" s="2">
-        <v>21224800</v>
+        <v>116320000</v>
       </c>
       <c r="H2032" s="2">
-        <v>569100</v>
+        <v>2654500</v>
       </c>
       <c r="I2032" s="2">
-        <v>217700</v>
+        <v>2704100</v>
       </c>
       <c r="J2032" s="2">
-        <v>22011600</v>
+        <v>121678600</v>
       </c>
       <c r="K2032" s="2">
-        <v>82293700</v>
+        <v>493947100</v>
       </c>
       <c r="L2032" s="2">
-        <v>93299500</v>
+        <v>554786400</v>
       </c>
       <c r="M2032" s="2">
-        <v>93299500</v>
+        <v>554786400</v>
       </c>
     </row>
     <row r="2033" spans="1:13">
@@ -84079,40 +84079,40 @@
         <v>2020</v>
       </c>
       <c r="B2033" s="3" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C2033" s="2">
-        <v>408658200</v>
+        <v>310798300</v>
       </c>
       <c r="D2033" s="2">
-        <v>202760800</v>
+        <v>0</v>
       </c>
       <c r="E2033" s="2">
-        <v>70099300</v>
+        <v>22473900</v>
       </c>
       <c r="F2033" s="2">
-        <v>681518300</v>
+        <v>333272200</v>
       </c>
       <c r="G2033" s="2">
-        <v>80686300</v>
+        <v>21850400</v>
       </c>
       <c r="H2033" s="2">
-        <v>278786500</v>
+        <v>1625400</v>
       </c>
       <c r="I2033" s="2">
-        <v>471700</v>
+        <v>976600</v>
       </c>
       <c r="J2033" s="2">
-        <v>359944500</v>
+        <v>24452400</v>
       </c>
       <c r="K2033" s="2">
-        <v>1041462800</v>
+        <v>357724600</v>
       </c>
       <c r="L2033" s="2">
-        <v>1221435050</v>
+        <v>369950800</v>
       </c>
       <c r="M2033" s="2">
-        <v>1221435050</v>
+        <v>369950800</v>
       </c>
     </row>
     <row r="2034" spans="1:13">
@@ -84120,40 +84120,40 @@
         <v>2020</v>
       </c>
       <c r="B2034" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C2034" s="2">
-        <v>1628967300</v>
+        <v>44278600</v>
       </c>
       <c r="D2034" s="2">
         <v>0</v>
       </c>
       <c r="E2034" s="2">
-        <v>62706800</v>
+        <v>11465400</v>
       </c>
       <c r="F2034" s="2">
-        <v>1691674100</v>
+        <v>55744000</v>
       </c>
       <c r="G2034" s="2">
-        <v>72726000</v>
+        <v>19667300</v>
       </c>
       <c r="H2034" s="2">
-        <v>0</v>
+        <v>111300</v>
       </c>
       <c r="I2034" s="2">
-        <v>1800</v>
+        <v>23000</v>
       </c>
       <c r="J2034" s="2">
-        <v>72727800</v>
+        <v>19801600</v>
       </c>
       <c r="K2034" s="2">
-        <v>1764401900</v>
+        <v>75545600</v>
       </c>
       <c r="L2034" s="2">
-        <v>1800765800</v>
+        <v>85446400</v>
       </c>
       <c r="M2034" s="2">
-        <v>1800765800</v>
+        <v>85446400</v>
       </c>
     </row>
     <row r="2035" spans="1:13">
@@ -84161,40 +84161,40 @@
         <v>2020</v>
       </c>
       <c r="B2035" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C2035" s="2">
-        <v>55263300</v>
+        <v>60215000</v>
       </c>
       <c r="D2035" s="2">
-        <v>0</v>
+        <v>686000</v>
       </c>
       <c r="E2035" s="2">
-        <v>8386300</v>
+        <v>12291300</v>
       </c>
       <c r="F2035" s="2">
-        <v>63649600</v>
+        <v>73192300</v>
       </c>
       <c r="G2035" s="2">
-        <v>29785800</v>
+        <v>15696100</v>
       </c>
       <c r="H2035" s="2">
-        <v>1092300</v>
+        <v>466400</v>
       </c>
       <c r="I2035" s="2">
-        <v>1757200</v>
+        <v>818700</v>
       </c>
       <c r="J2035" s="2">
-        <v>32635300</v>
+        <v>16981200</v>
       </c>
       <c r="K2035" s="2">
-        <v>96284900</v>
+        <v>90173500</v>
       </c>
       <c r="L2035" s="2">
-        <v>112602550</v>
+        <v>98664100</v>
       </c>
       <c r="M2035" s="2">
-        <v>112602550</v>
+        <v>98664100</v>
       </c>
     </row>
     <row r="2036" spans="1:13">
@@ -84202,40 +84202,40 @@
         <v>2020</v>
       </c>
       <c r="B2036" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C2036" s="2">
-        <v>1311006000</v>
+        <v>45329700</v>
       </c>
       <c r="D2036" s="2">
-        <v>0</v>
+        <v>360300</v>
       </c>
       <c r="E2036" s="2">
-        <v>69583300</v>
+        <v>14592100</v>
       </c>
       <c r="F2036" s="2">
-        <v>1380589300</v>
+        <v>60282100</v>
       </c>
       <c r="G2036" s="2">
-        <v>120898400</v>
+        <v>21224800</v>
       </c>
       <c r="H2036" s="2">
-        <v>0</v>
+        <v>569100</v>
       </c>
       <c r="I2036" s="2">
-        <v>0</v>
+        <v>217700</v>
       </c>
       <c r="J2036" s="2">
-        <v>120898400</v>
+        <v>22011600</v>
       </c>
       <c r="K2036" s="2">
-        <v>1501487700</v>
+        <v>82293700</v>
       </c>
       <c r="L2036" s="2">
-        <v>1561936900</v>
+        <v>93299500</v>
       </c>
       <c r="M2036" s="2">
-        <v>1561936900</v>
+        <v>93299500</v>
       </c>
     </row>
     <row r="2037" spans="1:13">
@@ -84243,40 +84243,40 @@
         <v>2020</v>
       </c>
       <c r="B2037" s="3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C2037" s="2">
-        <v>1155870900</v>
+        <v>408658200</v>
       </c>
       <c r="D2037" s="2">
-        <v>0</v>
+        <v>202760800</v>
       </c>
       <c r="E2037" s="2">
-        <v>50008700</v>
+        <v>70099300</v>
       </c>
       <c r="F2037" s="2">
-        <v>1205879600</v>
+        <v>681518300</v>
       </c>
       <c r="G2037" s="2">
-        <v>82010100</v>
+        <v>80686300</v>
       </c>
       <c r="H2037" s="2">
-        <v>250300</v>
+        <v>278786500</v>
       </c>
       <c r="I2037" s="2">
-        <v>511500</v>
+        <v>471700</v>
       </c>
       <c r="J2037" s="2">
-        <v>82771900</v>
+        <v>359944500</v>
       </c>
       <c r="K2037" s="2">
-        <v>1288651500</v>
+        <v>1041462800</v>
       </c>
       <c r="L2037" s="2">
-        <v>1330037450</v>
+        <v>1221435050</v>
       </c>
       <c r="M2037" s="2">
-        <v>1330037450</v>
+        <v>1221435050</v>
       </c>
     </row>
     <row r="2038" spans="1:13">
@@ -84284,40 +84284,40 @@
         <v>2020</v>
       </c>
       <c r="B2038" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C2038" s="2">
-        <v>390401000</v>
+        <v>1628967300</v>
       </c>
       <c r="D2038" s="2">
         <v>0</v>
       </c>
       <c r="E2038" s="2">
-        <v>187708500</v>
+        <v>62706800</v>
       </c>
       <c r="F2038" s="2">
-        <v>578109500</v>
+        <v>1691674100</v>
       </c>
       <c r="G2038" s="2">
-        <v>51198400</v>
+        <v>72726000</v>
       </c>
       <c r="H2038" s="2">
-        <v>28400</v>
+        <v>0</v>
       </c>
       <c r="I2038" s="2">
-        <v>1654200</v>
+        <v>1800</v>
       </c>
       <c r="J2038" s="2">
-        <v>52881000</v>
+        <v>72727800</v>
       </c>
       <c r="K2038" s="2">
-        <v>630990500</v>
+        <v>1764401900</v>
       </c>
       <c r="L2038" s="2">
-        <v>657431000</v>
+        <v>1800765800</v>
       </c>
       <c r="M2038" s="2">
-        <v>657431000</v>
+        <v>1800765800</v>
       </c>
     </row>
     <row r="2039" spans="1:13">
@@ -84325,40 +84325,40 @@
         <v>2020</v>
       </c>
       <c r="B2039" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2039" s="2">
-        <v>251442800</v>
+        <v>55263300</v>
       </c>
       <c r="D2039" s="2">
-        <v>192900</v>
+        <v>0</v>
       </c>
       <c r="E2039" s="2">
-        <v>16909600</v>
+        <v>8386300</v>
       </c>
       <c r="F2039" s="2">
-        <v>268545300</v>
+        <v>63649600</v>
       </c>
       <c r="G2039" s="2">
-        <v>23199700</v>
+        <v>29785800</v>
       </c>
       <c r="H2039" s="2">
-        <v>15655000</v>
+        <v>1092300</v>
       </c>
       <c r="I2039" s="2">
-        <v>1426700</v>
+        <v>1757200</v>
       </c>
       <c r="J2039" s="2">
-        <v>40281400</v>
+        <v>32635300</v>
       </c>
       <c r="K2039" s="2">
-        <v>308826700</v>
+        <v>96284900</v>
       </c>
       <c r="L2039" s="2">
-        <v>328967400</v>
+        <v>112602550</v>
       </c>
       <c r="M2039" s="2">
-        <v>328967400</v>
+        <v>112602550</v>
       </c>
     </row>
     <row r="2040" spans="1:13">
@@ -84366,40 +84366,40 @@
         <v>2020</v>
       </c>
       <c r="B2040" s="3" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C2040" s="2">
-        <v>55039200</v>
+        <v>1311006000</v>
       </c>
       <c r="D2040" s="2">
         <v>0</v>
       </c>
       <c r="E2040" s="2">
-        <v>8610400</v>
+        <v>69583300</v>
       </c>
       <c r="F2040" s="2">
-        <v>63649600</v>
+        <v>1380589300</v>
       </c>
       <c r="G2040" s="2">
-        <v>6422100</v>
+        <v>120898400</v>
       </c>
       <c r="H2040" s="2">
-        <v>3874100</v>
+        <v>0</v>
       </c>
       <c r="I2040" s="2">
-        <v>610200</v>
+        <v>0</v>
       </c>
       <c r="J2040" s="2">
-        <v>10906400</v>
+        <v>120898400</v>
       </c>
       <c r="K2040" s="2">
-        <v>74556000</v>
+        <v>1501487700</v>
       </c>
       <c r="L2040" s="2">
-        <v>80009200</v>
+        <v>1561936900</v>
       </c>
       <c r="M2040" s="2">
-        <v>80009200</v>
+        <v>1561936900</v>
       </c>
     </row>
     <row r="2041" spans="1:13">
@@ -84407,40 +84407,40 @@
         <v>2020</v>
       </c>
       <c r="B2041" s="3" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C2041" s="2">
-        <v>95395100</v>
+        <v>1155870900</v>
       </c>
       <c r="D2041" s="2">
-        <v>530900</v>
+        <v>0</v>
       </c>
       <c r="E2041" s="2">
-        <v>20198700</v>
+        <v>50008700</v>
       </c>
       <c r="F2041" s="2">
-        <v>116124700</v>
+        <v>1205879600</v>
       </c>
       <c r="G2041" s="2">
-        <v>12515700</v>
+        <v>82010100</v>
       </c>
       <c r="H2041" s="2">
-        <v>692000</v>
+        <v>250300</v>
       </c>
       <c r="I2041" s="2">
-        <v>210300</v>
+        <v>511500</v>
       </c>
       <c r="J2041" s="2">
-        <v>13418000</v>
+        <v>82771900</v>
       </c>
       <c r="K2041" s="2">
-        <v>129542700</v>
+        <v>1288651500</v>
       </c>
       <c r="L2041" s="2">
-        <v>136251700</v>
+        <v>1330037450</v>
       </c>
       <c r="M2041" s="2">
-        <v>136251700</v>
+        <v>1330037450</v>
       </c>
     </row>
     <row r="2042" spans="1:13">
@@ -84448,40 +84448,40 @@
         <v>2020</v>
       </c>
       <c r="B2042" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2042" s="2">
-        <v>488867100</v>
+        <v>390401000</v>
       </c>
       <c r="D2042" s="2">
         <v>0</v>
       </c>
       <c r="E2042" s="2">
-        <v>28329800</v>
+        <v>187708500</v>
       </c>
       <c r="F2042" s="2">
-        <v>517196900</v>
+        <v>578109500</v>
       </c>
       <c r="G2042" s="2">
-        <v>89731600</v>
+        <v>51198400</v>
       </c>
       <c r="H2042" s="2">
-        <v>8173900</v>
+        <v>28400</v>
       </c>
       <c r="I2042" s="2">
-        <v>30125300</v>
+        <v>1654200</v>
       </c>
       <c r="J2042" s="2">
-        <v>128030800</v>
+        <v>52881000</v>
       </c>
       <c r="K2042" s="2">
-        <v>645227700</v>
+        <v>630990500</v>
       </c>
       <c r="L2042" s="2">
-        <v>709243100</v>
+        <v>657431000</v>
       </c>
       <c r="M2042" s="2">
-        <v>709243100</v>
+        <v>657431000</v>
       </c>
     </row>
     <row r="2043" spans="1:13">
@@ -84489,40 +84489,40 @@
         <v>2020</v>
       </c>
       <c r="B2043" s="3" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C2043" s="2">
-        <v>127990500</v>
+        <v>251442800</v>
       </c>
       <c r="D2043" s="2">
-        <v>0</v>
+        <v>192900</v>
       </c>
       <c r="E2043" s="2">
-        <v>60934800</v>
+        <v>16909600</v>
       </c>
       <c r="F2043" s="2">
-        <v>188925300</v>
+        <v>268545300</v>
       </c>
       <c r="G2043" s="2">
-        <v>27688400</v>
+        <v>23199700</v>
       </c>
       <c r="H2043" s="2">
-        <v>1186100</v>
+        <v>15655000</v>
       </c>
       <c r="I2043" s="2">
-        <v>6989900</v>
+        <v>1426700</v>
       </c>
       <c r="J2043" s="2">
-        <v>35864400</v>
+        <v>40281400</v>
       </c>
       <c r="K2043" s="2">
-        <v>224789700</v>
+        <v>308826700</v>
       </c>
       <c r="L2043" s="2">
-        <v>242721900</v>
+        <v>328967400</v>
       </c>
       <c r="M2043" s="2">
-        <v>242721900</v>
+        <v>328967400</v>
       </c>
     </row>
     <row r="2044" spans="1:13">
@@ -84530,40 +84530,40 @@
         <v>2020</v>
       </c>
       <c r="B2044" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C2044" s="2">
-        <v>73445800</v>
+        <v>55039200</v>
       </c>
       <c r="D2044" s="2">
-        <v>331200</v>
+        <v>0</v>
       </c>
       <c r="E2044" s="2">
-        <v>18237900</v>
+        <v>8610400</v>
       </c>
       <c r="F2044" s="2">
-        <v>92014900</v>
+        <v>63649600</v>
       </c>
       <c r="G2044" s="2">
-        <v>23315600</v>
+        <v>6422100</v>
       </c>
       <c r="H2044" s="2">
-        <v>2721700</v>
+        <v>3874100</v>
       </c>
       <c r="I2044" s="2">
-        <v>5448500</v>
+        <v>610200</v>
       </c>
       <c r="J2044" s="2">
-        <v>31485800</v>
+        <v>10906400</v>
       </c>
       <c r="K2044" s="2">
-        <v>123500700</v>
+        <v>74556000</v>
       </c>
       <c r="L2044" s="2">
-        <v>139243600</v>
+        <v>80009200</v>
       </c>
       <c r="M2044" s="2">
-        <v>139243600</v>
+        <v>80009200</v>
       </c>
     </row>
     <row r="2045" spans="1:13">
@@ -84571,40 +84571,40 @@
         <v>2020</v>
       </c>
       <c r="B2045" s="3" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C2045" s="2">
-        <v>181299200</v>
+        <v>95395100</v>
       </c>
       <c r="D2045" s="2">
-        <v>0</v>
+        <v>530900</v>
       </c>
       <c r="E2045" s="2">
-        <v>45809300</v>
+        <v>20198700</v>
       </c>
       <c r="F2045" s="2">
-        <v>227108500</v>
+        <v>116124700</v>
       </c>
       <c r="G2045" s="2">
-        <v>61371400</v>
+        <v>12515700</v>
       </c>
       <c r="H2045" s="2">
-        <v>7697400</v>
+        <v>692000</v>
       </c>
       <c r="I2045" s="2">
-        <v>7476800</v>
+        <v>210300</v>
       </c>
       <c r="J2045" s="2">
-        <v>76545600</v>
+        <v>13418000</v>
       </c>
       <c r="K2045" s="2">
-        <v>303654100</v>
+        <v>129542700</v>
       </c>
       <c r="L2045" s="2">
-        <v>341926900</v>
+        <v>136251700</v>
       </c>
       <c r="M2045" s="2">
-        <v>341926900</v>
+        <v>136251700</v>
       </c>
     </row>
     <row r="2046" spans="1:13">
@@ -84612,40 +84612,40 @@
         <v>2020</v>
       </c>
       <c r="B2046" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2046" s="2">
-        <v>230898800</v>
+        <v>488867100</v>
       </c>
       <c r="D2046" s="2">
         <v>0</v>
       </c>
       <c r="E2046" s="2">
-        <v>43442300</v>
+        <v>28329800</v>
       </c>
       <c r="F2046" s="2">
-        <v>274341100</v>
+        <v>517196900</v>
       </c>
       <c r="G2046" s="2">
-        <v>92005300</v>
+        <v>89731600</v>
       </c>
       <c r="H2046" s="2">
-        <v>3004600</v>
+        <v>8173900</v>
       </c>
       <c r="I2046" s="2">
-        <v>2371500</v>
+        <v>30125300</v>
       </c>
       <c r="J2046" s="2">
-        <v>97381400</v>
+        <v>128030800</v>
       </c>
       <c r="K2046" s="2">
-        <v>371722500</v>
+        <v>645227700</v>
       </c>
       <c r="L2046" s="2">
-        <v>420413200</v>
+        <v>709243100</v>
       </c>
       <c r="M2046" s="2">
-        <v>420413200</v>
+        <v>709243100</v>
       </c>
     </row>
     <row r="2047" spans="1:13">
@@ -84653,40 +84653,40 @@
         <v>2020</v>
       </c>
       <c r="B2047" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2047" s="2">
-        <v>8988779100</v>
+        <v>127990500</v>
       </c>
       <c r="D2047" s="2">
-        <v>205265500</v>
+        <v>0</v>
       </c>
       <c r="E2047" s="2">
-        <v>1109593100</v>
+        <v>60934800</v>
       </c>
       <c r="F2047" s="2">
-        <v>10303637700</v>
+        <v>188925300</v>
       </c>
       <c r="G2047" s="2">
-        <v>1397828600</v>
+        <v>27688400</v>
       </c>
       <c r="H2047" s="2">
-        <v>339314300</v>
+        <v>1186100</v>
       </c>
       <c r="I2047" s="2">
-        <v>98806300</v>
+        <v>6989900</v>
       </c>
       <c r="J2047" s="2">
-        <v>1835949200</v>
+        <v>35864400</v>
       </c>
       <c r="K2047" s="2">
-        <v>12139586900</v>
+        <v>224789700</v>
       </c>
       <c r="L2047" s="2">
-        <v>13057561500</v>
+        <v>242721900</v>
       </c>
       <c r="M2047" s="2">
-        <v>13057561500</v>
+        <v>242721900</v>
       </c>
     </row>
     <row r="2048" spans="1:13">
@@ -84694,40 +84694,40 @@
         <v>2020</v>
       </c>
       <c r="B2048" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2048" s="2">
-        <v>24466600</v>
+        <v>73445800</v>
       </c>
       <c r="D2048" s="2">
-        <v>469900</v>
+        <v>331200</v>
       </c>
       <c r="E2048" s="2">
-        <v>0</v>
+        <v>18237900</v>
       </c>
       <c r="F2048" s="2">
-        <v>24936500</v>
+        <v>92014900</v>
       </c>
       <c r="G2048" s="2">
-        <v>3279700</v>
+        <v>23315600</v>
       </c>
       <c r="H2048" s="2">
-        <v>99600</v>
+        <v>2721700</v>
       </c>
       <c r="I2048" s="2">
-        <v>1800</v>
+        <v>5448500</v>
       </c>
       <c r="J2048" s="2">
-        <v>3381100</v>
+        <v>31485800</v>
       </c>
       <c r="K2048" s="2">
-        <v>28317600</v>
+        <v>123500700</v>
       </c>
       <c r="L2048" s="2">
-        <v>30008150</v>
+        <v>139243600</v>
       </c>
       <c r="M2048" s="2">
-        <v>30008150</v>
+        <v>139243600</v>
       </c>
     </row>
     <row r="2049" spans="1:13">
@@ -84735,40 +84735,40 @@
         <v>2020</v>
       </c>
       <c r="B2049" s="3" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="C2049" s="2">
-        <v>9748000</v>
+        <v>181299200</v>
       </c>
       <c r="D2049" s="2">
         <v>0</v>
       </c>
       <c r="E2049" s="2">
-        <v>29000</v>
+        <v>45809300</v>
       </c>
       <c r="F2049" s="2">
-        <v>9777000</v>
+        <v>227108500</v>
       </c>
       <c r="G2049" s="2">
-        <v>210500</v>
+        <v>61371400</v>
       </c>
       <c r="H2049" s="2">
-        <v>0</v>
+        <v>7697400</v>
       </c>
       <c r="I2049" s="2">
-        <v>51200</v>
+        <v>7476800</v>
       </c>
       <c r="J2049" s="2">
-        <v>261700</v>
+        <v>76545600</v>
       </c>
       <c r="K2049" s="2">
-        <v>10038700</v>
+        <v>303654100</v>
       </c>
       <c r="L2049" s="2">
-        <v>10169550</v>
+        <v>341926900</v>
       </c>
       <c r="M2049" s="2">
-        <v>10169550</v>
+        <v>341926900</v>
       </c>
     </row>
     <row r="2050" spans="1:13">
@@ -84776,40 +84776,40 @@
         <v>2020</v>
       </c>
       <c r="B2050" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2050" s="2">
-        <v>139479400</v>
+        <v>230898800</v>
       </c>
       <c r="D2050" s="2">
         <v>0</v>
       </c>
       <c r="E2050" s="2">
-        <v>3834900</v>
+        <v>43442300</v>
       </c>
       <c r="F2050" s="2">
-        <v>143314300</v>
+        <v>274341100</v>
       </c>
       <c r="G2050" s="2">
-        <v>57861800</v>
+        <v>92005300</v>
       </c>
       <c r="H2050" s="2">
-        <v>133100</v>
+        <v>3004600</v>
       </c>
       <c r="I2050" s="2">
-        <v>3326700</v>
+        <v>2371500</v>
       </c>
       <c r="J2050" s="2">
-        <v>61321600</v>
+        <v>97381400</v>
       </c>
       <c r="K2050" s="2">
-        <v>204635900</v>
+        <v>371722500</v>
       </c>
       <c r="L2050" s="2">
-        <v>235296700</v>
+        <v>420413200</v>
       </c>
       <c r="M2050" s="2">
-        <v>235296700</v>
+        <v>420413200</v>
       </c>
     </row>
     <row r="2051" spans="1:13">
@@ -84817,40 +84817,40 @@
         <v>2020</v>
       </c>
       <c r="B2051" s="3" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="C2051" s="2">
-        <v>76384400</v>
+        <v>8988779100</v>
       </c>
       <c r="D2051" s="2">
-        <v>139700</v>
+        <v>205265500</v>
       </c>
       <c r="E2051" s="2">
-        <v>17412900</v>
+        <v>1109593100</v>
       </c>
       <c r="F2051" s="2">
-        <v>93937000</v>
+        <v>10303637700</v>
       </c>
       <c r="G2051" s="2">
-        <v>5480000</v>
+        <v>1397828600</v>
       </c>
       <c r="H2051" s="2">
-        <v>48100</v>
+        <v>339314300</v>
       </c>
       <c r="I2051" s="2">
-        <v>0</v>
+        <v>98806300</v>
       </c>
       <c r="J2051" s="2">
-        <v>5528100</v>
+        <v>1835949200</v>
       </c>
       <c r="K2051" s="2">
-        <v>99465100</v>
+        <v>12139586900</v>
       </c>
       <c r="L2051" s="2">
-        <v>102229150</v>
+        <v>13057561500</v>
       </c>
       <c r="M2051" s="2">
-        <v>102229150</v>
+        <v>13057561500</v>
       </c>
     </row>
     <row r="2052" spans="1:13">
@@ -84858,40 +84858,40 @@
         <v>2020</v>
       </c>
       <c r="B2052" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2052" s="2">
-        <v>54835800</v>
+        <v>24466600</v>
       </c>
       <c r="D2052" s="2">
-        <v>0</v>
+        <v>469900</v>
       </c>
       <c r="E2052" s="2">
-        <v>5229200</v>
+        <v>0</v>
       </c>
       <c r="F2052" s="2">
-        <v>60065000</v>
+        <v>24936500</v>
       </c>
       <c r="G2052" s="2">
-        <v>8936800</v>
+        <v>3279700</v>
       </c>
       <c r="H2052" s="2">
-        <v>18400</v>
+        <v>99600</v>
       </c>
       <c r="I2052" s="2">
-        <v>331200</v>
+        <v>1800</v>
       </c>
       <c r="J2052" s="2">
-        <v>9286400</v>
+        <v>3381100</v>
       </c>
       <c r="K2052" s="2">
-        <v>69351400</v>
+        <v>28317600</v>
       </c>
       <c r="L2052" s="2">
-        <v>73994600</v>
+        <v>30008150</v>
       </c>
       <c r="M2052" s="2">
-        <v>73994600</v>
+        <v>30008150</v>
       </c>
     </row>
     <row r="2053" spans="1:13">
@@ -84899,40 +84899,40 @@
         <v>2020</v>
       </c>
       <c r="B2053" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C2053" s="2">
-        <v>15484900</v>
+        <v>9748000</v>
       </c>
       <c r="D2053" s="2">
         <v>0</v>
       </c>
       <c r="E2053" s="2">
-        <v>3286400</v>
+        <v>29000</v>
       </c>
       <c r="F2053" s="2">
-        <v>18771300</v>
+        <v>9777000</v>
       </c>
       <c r="G2053" s="2">
-        <v>1604100</v>
+        <v>210500</v>
       </c>
       <c r="H2053" s="2">
-        <v>55900</v>
+        <v>0</v>
       </c>
       <c r="I2053" s="2">
-        <v>524200</v>
+        <v>51200</v>
       </c>
       <c r="J2053" s="2">
-        <v>2184200</v>
+        <v>261700</v>
       </c>
       <c r="K2053" s="2">
-        <v>20955500</v>
+        <v>10038700</v>
       </c>
       <c r="L2053" s="2">
-        <v>22047600</v>
+        <v>10169550</v>
       </c>
       <c r="M2053" s="2">
-        <v>22047600</v>
+        <v>10169550</v>
       </c>
     </row>
     <row r="2054" spans="1:13">
@@ -84940,40 +84940,40 @@
         <v>2020</v>
       </c>
       <c r="B2054" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C2054" s="2">
-        <v>56570200</v>
+        <v>139479400</v>
       </c>
       <c r="D2054" s="2">
-        <v>90300</v>
+        <v>0</v>
       </c>
       <c r="E2054" s="2">
-        <v>4841100</v>
+        <v>3834900</v>
       </c>
       <c r="F2054" s="2">
-        <v>61501600</v>
+        <v>143314300</v>
       </c>
       <c r="G2054" s="2">
-        <v>202326500</v>
+        <v>57861800</v>
       </c>
       <c r="H2054" s="2">
-        <v>15177300</v>
+        <v>133100</v>
       </c>
       <c r="I2054" s="2">
-        <v>555800</v>
+        <v>3326700</v>
       </c>
       <c r="J2054" s="2">
-        <v>218059600</v>
+        <v>61321600</v>
       </c>
       <c r="K2054" s="2">
-        <v>279561200</v>
+        <v>204635900</v>
       </c>
       <c r="L2054" s="2">
-        <v>388591000</v>
+        <v>235296700</v>
       </c>
       <c r="M2054" s="2">
-        <v>388591000</v>
+        <v>235296700</v>
       </c>
     </row>
     <row r="2055" spans="1:13">
@@ -84981,40 +84981,40 @@
         <v>2020</v>
       </c>
       <c r="B2055" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C2055" s="2">
-        <v>50115100</v>
+        <v>76384400</v>
       </c>
       <c r="D2055" s="2">
-        <v>0</v>
+        <v>139700</v>
       </c>
       <c r="E2055" s="2">
-        <v>6386600</v>
+        <v>17412900</v>
       </c>
       <c r="F2055" s="2">
-        <v>56501700</v>
+        <v>93937000</v>
       </c>
       <c r="G2055" s="2">
-        <v>1659500</v>
+        <v>5480000</v>
       </c>
       <c r="H2055" s="2">
-        <v>0</v>
+        <v>48100</v>
       </c>
       <c r="I2055" s="2">
-        <v>2024000</v>
+        <v>0</v>
       </c>
       <c r="J2055" s="2">
-        <v>3683500</v>
+        <v>5528100</v>
       </c>
       <c r="K2055" s="2">
-        <v>60185200</v>
+        <v>99465100</v>
       </c>
       <c r="L2055" s="2">
-        <v>62026950</v>
+        <v>102229150</v>
       </c>
       <c r="M2055" s="2">
-        <v>62026950</v>
+        <v>102229150</v>
       </c>
     </row>
     <row r="2056" spans="1:13">
@@ -85022,40 +85022,40 @@
         <v>2020</v>
       </c>
       <c r="B2056" s="3" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C2056" s="2">
-        <v>27395500</v>
+        <v>54835800</v>
       </c>
       <c r="D2056" s="2">
         <v>0</v>
       </c>
       <c r="E2056" s="2">
-        <v>5533700</v>
+        <v>5229200</v>
       </c>
       <c r="F2056" s="2">
-        <v>32929200</v>
+        <v>60065000</v>
       </c>
       <c r="G2056" s="2">
-        <v>15894400</v>
+        <v>8936800</v>
       </c>
       <c r="H2056" s="2">
-        <v>53800</v>
+        <v>18400</v>
       </c>
       <c r="I2056" s="2">
-        <v>1239000</v>
+        <v>331200</v>
       </c>
       <c r="J2056" s="2">
-        <v>17187200</v>
+        <v>9286400</v>
       </c>
       <c r="K2056" s="2">
-        <v>50116400</v>
+        <v>69351400</v>
       </c>
       <c r="L2056" s="2">
-        <v>58710000</v>
+        <v>73994600</v>
       </c>
       <c r="M2056" s="2">
-        <v>58710000</v>
+        <v>73994600</v>
       </c>
     </row>
     <row r="2057" spans="1:13">
@@ -85063,40 +85063,40 @@
         <v>2020</v>
       </c>
       <c r="B2057" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2057" s="2">
-        <v>38068100</v>
+        <v>15484900</v>
       </c>
       <c r="D2057" s="2">
-        <v>355300</v>
+        <v>0</v>
       </c>
       <c r="E2057" s="2">
-        <v>6164200</v>
+        <v>3286400</v>
       </c>
       <c r="F2057" s="2">
-        <v>44587600</v>
+        <v>18771300</v>
       </c>
       <c r="G2057" s="2">
-        <v>2648700</v>
+        <v>1604100</v>
       </c>
       <c r="H2057" s="2">
-        <v>566000</v>
+        <v>55900</v>
       </c>
       <c r="I2057" s="2">
-        <v>339200</v>
+        <v>524200</v>
       </c>
       <c r="J2057" s="2">
-        <v>3553900</v>
+        <v>2184200</v>
       </c>
       <c r="K2057" s="2">
-        <v>48141500</v>
+        <v>20955500</v>
       </c>
       <c r="L2057" s="2">
-        <v>49918450</v>
+        <v>22047600</v>
       </c>
       <c r="M2057" s="2">
-        <v>49918450</v>
+        <v>22047600</v>
       </c>
     </row>
     <row r="2058" spans="1:13">
@@ -85104,40 +85104,40 @@
         <v>2020</v>
       </c>
       <c r="B2058" s="3" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="C2058" s="2">
-        <v>90934000</v>
+        <v>56570200</v>
       </c>
       <c r="D2058" s="2">
-        <v>111100</v>
+        <v>90300</v>
       </c>
       <c r="E2058" s="2">
-        <v>4680300</v>
+        <v>4841100</v>
       </c>
       <c r="F2058" s="2">
-        <v>95725400</v>
+        <v>61501600</v>
       </c>
       <c r="G2058" s="2">
-        <v>468500</v>
+        <v>202326500</v>
       </c>
       <c r="H2058" s="2">
-        <v>0</v>
+        <v>15177300</v>
       </c>
       <c r="I2058" s="2">
-        <v>3600</v>
+        <v>555800</v>
       </c>
       <c r="J2058" s="2">
-        <v>472100</v>
+        <v>218059600</v>
       </c>
       <c r="K2058" s="2">
-        <v>96197500</v>
+        <v>279561200</v>
       </c>
       <c r="L2058" s="2">
-        <v>96433550</v>
+        <v>388591000</v>
       </c>
       <c r="M2058" s="2">
-        <v>96433550</v>
+        <v>388591000</v>
       </c>
     </row>
     <row r="2059" spans="1:13">
@@ -85145,40 +85145,40 @@
         <v>2020</v>
       </c>
       <c r="B2059" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2059" s="2">
-        <v>8528700</v>
+        <v>50115100</v>
       </c>
       <c r="D2059" s="2">
         <v>0</v>
       </c>
       <c r="E2059" s="2">
-        <v>4400600</v>
+        <v>6386600</v>
       </c>
       <c r="F2059" s="2">
-        <v>12929300</v>
+        <v>56501700</v>
       </c>
       <c r="G2059" s="2">
-        <v>264500</v>
+        <v>1659500</v>
       </c>
       <c r="H2059" s="2">
-        <v>45500</v>
+        <v>0</v>
       </c>
       <c r="I2059" s="2">
-        <v>263900</v>
+        <v>2024000</v>
       </c>
       <c r="J2059" s="2">
-        <v>573900</v>
+        <v>3683500</v>
       </c>
       <c r="K2059" s="2">
-        <v>13503200</v>
+        <v>60185200</v>
       </c>
       <c r="L2059" s="2">
-        <v>13790150</v>
+        <v>62026950</v>
       </c>
       <c r="M2059" s="2">
-        <v>13790150</v>
+        <v>62026950</v>
       </c>
     </row>
     <row r="2060" spans="1:13">
@@ -85186,40 +85186,40 @@
         <v>2020</v>
       </c>
       <c r="B2060" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2060" s="2">
-        <v>158476900</v>
+        <v>27395500</v>
       </c>
       <c r="D2060" s="2">
-        <v>133200</v>
+        <v>0</v>
       </c>
       <c r="E2060" s="2">
-        <v>6214800</v>
+        <v>5533700</v>
       </c>
       <c r="F2060" s="2">
-        <v>164824900</v>
+        <v>32929200</v>
       </c>
       <c r="G2060" s="2">
-        <v>27881800</v>
+        <v>15894400</v>
       </c>
       <c r="H2060" s="2">
-        <v>186600</v>
+        <v>53800</v>
       </c>
       <c r="I2060" s="2">
-        <v>690300</v>
+        <v>1239000</v>
       </c>
       <c r="J2060" s="2">
-        <v>28758700</v>
+        <v>17187200</v>
       </c>
       <c r="K2060" s="2">
-        <v>193583600</v>
+        <v>50116400</v>
       </c>
       <c r="L2060" s="2">
-        <v>207962950</v>
+        <v>58710000</v>
       </c>
       <c r="M2060" s="2">
-        <v>207962950</v>
+        <v>58710000</v>
       </c>
     </row>
     <row r="2061" spans="1:13">
@@ -85227,40 +85227,40 @@
         <v>2020</v>
       </c>
       <c r="B2061" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C2061" s="2">
-        <v>19849100</v>
+        <v>38068100</v>
       </c>
       <c r="D2061" s="2">
-        <v>0</v>
+        <v>355300</v>
       </c>
       <c r="E2061" s="2">
-        <v>4064400</v>
+        <v>6164200</v>
       </c>
       <c r="F2061" s="2">
-        <v>23913500</v>
+        <v>44587600</v>
       </c>
       <c r="G2061" s="2">
-        <v>8793500</v>
+        <v>2648700</v>
       </c>
       <c r="H2061" s="2">
-        <v>61700</v>
+        <v>566000</v>
       </c>
       <c r="I2061" s="2">
-        <v>0</v>
+        <v>339200</v>
       </c>
       <c r="J2061" s="2">
-        <v>8855200</v>
+        <v>3553900</v>
       </c>
       <c r="K2061" s="2">
-        <v>32768700</v>
+        <v>48141500</v>
       </c>
       <c r="L2061" s="2">
-        <v>37196300</v>
+        <v>49918450</v>
       </c>
       <c r="M2061" s="2">
-        <v>37196300</v>
+        <v>49918450</v>
       </c>
     </row>
     <row r="2062" spans="1:13">
@@ -85268,40 +85268,40 @@
         <v>2020</v>
       </c>
       <c r="B2062" s="3" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C2062" s="2">
-        <v>76646300</v>
+        <v>90934000</v>
       </c>
       <c r="D2062" s="2">
-        <v>100800</v>
+        <v>111100</v>
       </c>
       <c r="E2062" s="2">
-        <v>33800</v>
+        <v>4680300</v>
       </c>
       <c r="F2062" s="2">
-        <v>76780900</v>
+        <v>95725400</v>
       </c>
       <c r="G2062" s="2">
-        <v>6679400</v>
+        <v>468500</v>
       </c>
       <c r="H2062" s="2">
-        <v>60600</v>
+        <v>0</v>
       </c>
       <c r="I2062" s="2">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="J2062" s="2">
-        <v>6743500</v>
+        <v>472100</v>
       </c>
       <c r="K2062" s="2">
-        <v>83524400</v>
+        <v>96197500</v>
       </c>
       <c r="L2062" s="2">
-        <v>86896150</v>
+        <v>96433550</v>
       </c>
       <c r="M2062" s="2">
-        <v>86896150</v>
+        <v>96433550</v>
       </c>
     </row>
     <row r="2063" spans="1:13">
@@ -85309,40 +85309,40 @@
         <v>2020</v>
       </c>
       <c r="B2063" s="3" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C2063" s="2">
-        <v>34943800</v>
+        <v>8528700</v>
       </c>
       <c r="D2063" s="2">
         <v>0</v>
       </c>
       <c r="E2063" s="2">
-        <v>10433700</v>
+        <v>4400600</v>
       </c>
       <c r="F2063" s="2">
-        <v>45377500</v>
+        <v>12929300</v>
       </c>
       <c r="G2063" s="2">
-        <v>14698000</v>
+        <v>264500</v>
       </c>
       <c r="H2063" s="2">
-        <v>89800</v>
+        <v>45500</v>
       </c>
       <c r="I2063" s="2">
-        <v>829500</v>
+        <v>263900</v>
       </c>
       <c r="J2063" s="2">
-        <v>15617300</v>
+        <v>573900</v>
       </c>
       <c r="K2063" s="2">
-        <v>60994800</v>
+        <v>13503200</v>
       </c>
       <c r="L2063" s="2">
-        <v>68803450</v>
+        <v>13790150</v>
       </c>
       <c r="M2063" s="2">
-        <v>68803450</v>
+        <v>13790150</v>
       </c>
     </row>
     <row r="2064" spans="1:13">
@@ -85350,40 +85350,40 @@
         <v>2020</v>
       </c>
       <c r="B2064" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2064" s="2">
-        <v>30624200</v>
+        <v>158476900</v>
       </c>
       <c r="D2064" s="2">
-        <v>439500</v>
+        <v>133200</v>
       </c>
       <c r="E2064" s="2">
-        <v>3561400</v>
+        <v>6214800</v>
       </c>
       <c r="F2064" s="2">
-        <v>34625100</v>
+        <v>164824900</v>
       </c>
       <c r="G2064" s="2">
-        <v>12317400</v>
+        <v>27881800</v>
       </c>
       <c r="H2064" s="2">
-        <v>500400</v>
+        <v>186600</v>
       </c>
       <c r="I2064" s="2">
-        <v>2357800</v>
+        <v>690300</v>
       </c>
       <c r="J2064" s="2">
-        <v>15175600</v>
+        <v>28758700</v>
       </c>
       <c r="K2064" s="2">
-        <v>49800700</v>
+        <v>193583600</v>
       </c>
       <c r="L2064" s="2">
-        <v>57388500</v>
+        <v>207962950</v>
       </c>
       <c r="M2064" s="2">
-        <v>57388500</v>
+        <v>207962950</v>
       </c>
     </row>
     <row r="2065" spans="1:13">
@@ -85391,40 +85391,40 @@
         <v>2020</v>
       </c>
       <c r="B2065" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2065" s="2">
-        <v>15386800</v>
+        <v>19849100</v>
       </c>
       <c r="D2065" s="2">
-        <v>9645000</v>
+        <v>0</v>
       </c>
       <c r="E2065" s="2">
-        <v>1400300</v>
+        <v>4064400</v>
       </c>
       <c r="F2065" s="2">
-        <v>26432100</v>
+        <v>23913500</v>
       </c>
       <c r="G2065" s="2">
-        <v>577400</v>
+        <v>8793500</v>
       </c>
       <c r="H2065" s="2">
-        <v>21507200</v>
+        <v>61700</v>
       </c>
       <c r="I2065" s="2">
         <v>0</v>
       </c>
       <c r="J2065" s="2">
-        <v>22084600</v>
+        <v>8855200</v>
       </c>
       <c r="K2065" s="2">
-        <v>48516700</v>
+        <v>32768700</v>
       </c>
       <c r="L2065" s="2">
-        <v>59559000</v>
+        <v>37196300</v>
       </c>
       <c r="M2065" s="2">
-        <v>59559000</v>
+        <v>37196300</v>
       </c>
     </row>
     <row r="2066" spans="1:13">
@@ -85432,40 +85432,40 @@
         <v>2020</v>
       </c>
       <c r="B2066" s="3" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="C2066" s="2">
-        <v>45415700</v>
+        <v>76646300</v>
       </c>
       <c r="D2066" s="2">
-        <v>0</v>
+        <v>100800</v>
       </c>
       <c r="E2066" s="2">
-        <v>4531600</v>
+        <v>33800</v>
       </c>
       <c r="F2066" s="2">
-        <v>49947300</v>
+        <v>76780900</v>
       </c>
       <c r="G2066" s="2">
-        <v>3119600</v>
+        <v>6679400</v>
       </c>
       <c r="H2066" s="2">
-        <v>0</v>
+        <v>60600</v>
       </c>
       <c r="I2066" s="2">
-        <v>182700</v>
+        <v>3500</v>
       </c>
       <c r="J2066" s="2">
-        <v>3302300</v>
+        <v>6743500</v>
       </c>
       <c r="K2066" s="2">
-        <v>53249600</v>
+        <v>83524400</v>
       </c>
       <c r="L2066" s="2">
-        <v>54900750</v>
+        <v>86896150</v>
       </c>
       <c r="M2066" s="2">
-        <v>54900750</v>
+        <v>86896150</v>
       </c>
     </row>
     <row r="2067" spans="1:13">
@@ -85473,40 +85473,40 @@
         <v>2020</v>
       </c>
       <c r="B2067" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C2067" s="2">
-        <v>71594600</v>
+        <v>34943800</v>
       </c>
       <c r="D2067" s="2">
-        <v>126200</v>
+        <v>0</v>
       </c>
       <c r="E2067" s="2">
-        <v>160100</v>
+        <v>10433700</v>
       </c>
       <c r="F2067" s="2">
-        <v>71880900</v>
+        <v>45377500</v>
       </c>
       <c r="G2067" s="2">
-        <v>8251400</v>
+        <v>14698000</v>
       </c>
       <c r="H2067" s="2">
-        <v>51800</v>
+        <v>89800</v>
       </c>
       <c r="I2067" s="2">
-        <v>12600</v>
+        <v>829500</v>
       </c>
       <c r="J2067" s="2">
-        <v>8315800</v>
+        <v>15617300</v>
       </c>
       <c r="K2067" s="2">
-        <v>80196700</v>
+        <v>60994800</v>
       </c>
       <c r="L2067" s="2">
-        <v>84354600</v>
+        <v>68803450</v>
       </c>
       <c r="M2067" s="2">
-        <v>84354600</v>
+        <v>68803450</v>
       </c>
     </row>
     <row r="2068" spans="1:13">
@@ -85514,40 +85514,40 @@
         <v>2020</v>
       </c>
       <c r="B2068" s="3" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C2068" s="2">
-        <v>32090300</v>
+        <v>30624200</v>
       </c>
       <c r="D2068" s="2">
-        <v>0</v>
+        <v>439500</v>
       </c>
       <c r="E2068" s="2">
-        <v>6791900</v>
+        <v>3561400</v>
       </c>
       <c r="F2068" s="2">
-        <v>38882200</v>
+        <v>34625100</v>
       </c>
       <c r="G2068" s="2">
-        <v>1326500</v>
+        <v>12317400</v>
       </c>
       <c r="H2068" s="2">
-        <v>0</v>
+        <v>500400</v>
       </c>
       <c r="I2068" s="2">
-        <v>849200</v>
+        <v>2357800</v>
       </c>
       <c r="J2068" s="2">
-        <v>2175700</v>
+        <v>15175600</v>
       </c>
       <c r="K2068" s="2">
-        <v>41057900</v>
+        <v>49800700</v>
       </c>
       <c r="L2068" s="2">
-        <v>42145750</v>
+        <v>57388500</v>
       </c>
       <c r="M2068" s="2">
-        <v>42145750</v>
+        <v>57388500</v>
       </c>
     </row>
     <row r="2069" spans="1:13">
@@ -85555,40 +85555,40 @@
         <v>2020</v>
       </c>
       <c r="B2069" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2069" s="2">
-        <v>58467700</v>
+        <v>15386800</v>
       </c>
       <c r="D2069" s="2">
-        <v>0</v>
+        <v>9645000</v>
       </c>
       <c r="E2069" s="2">
-        <v>1640600</v>
+        <v>1400300</v>
       </c>
       <c r="F2069" s="2">
-        <v>60108300</v>
+        <v>26432100</v>
       </c>
       <c r="G2069" s="2">
-        <v>1316900</v>
+        <v>577400</v>
       </c>
       <c r="H2069" s="2">
-        <v>149800</v>
+        <v>21507200</v>
       </c>
       <c r="I2069" s="2">
-        <v>184300</v>
+        <v>0</v>
       </c>
       <c r="J2069" s="2">
-        <v>1651000</v>
+        <v>22084600</v>
       </c>
       <c r="K2069" s="2">
-        <v>61759300</v>
+        <v>48516700</v>
       </c>
       <c r="L2069" s="2">
-        <v>62584800</v>
+        <v>59559000</v>
       </c>
       <c r="M2069" s="2">
-        <v>62584800</v>
+        <v>59559000</v>
       </c>
     </row>
     <row r="2070" spans="1:13">
@@ -85596,40 +85596,40 @@
         <v>2020</v>
       </c>
       <c r="B2070" s="3" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C2070" s="2">
-        <v>167722300</v>
+        <v>45415700</v>
       </c>
       <c r="D2070" s="2">
-        <v>821500</v>
+        <v>0</v>
       </c>
       <c r="E2070" s="2">
-        <v>6431900</v>
+        <v>4531600</v>
       </c>
       <c r="F2070" s="2">
-        <v>174975700</v>
+        <v>49947300</v>
       </c>
       <c r="G2070" s="2">
-        <v>19503200</v>
+        <v>3119600</v>
       </c>
       <c r="H2070" s="2">
-        <v>627600</v>
+        <v>0</v>
       </c>
       <c r="I2070" s="2">
-        <v>1756600</v>
+        <v>182700</v>
       </c>
       <c r="J2070" s="2">
-        <v>21887400</v>
+        <v>3302300</v>
       </c>
       <c r="K2070" s="2">
-        <v>196863100</v>
+        <v>53249600</v>
       </c>
       <c r="L2070" s="2">
-        <v>207806800</v>
+        <v>54900750</v>
       </c>
       <c r="M2070" s="2">
-        <v>207806800</v>
+        <v>54900750</v>
       </c>
     </row>
     <row r="2071" spans="1:13">
@@ -85637,40 +85637,40 @@
         <v>2020</v>
       </c>
       <c r="B2071" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C2071" s="2">
-        <v>28404200</v>
+        <v>71594600</v>
       </c>
       <c r="D2071" s="2">
-        <v>0</v>
+        <v>126200</v>
       </c>
       <c r="E2071" s="2">
-        <v>3528400</v>
+        <v>160100</v>
       </c>
       <c r="F2071" s="2">
-        <v>31932600</v>
+        <v>71880900</v>
       </c>
       <c r="G2071" s="2">
-        <v>3585600</v>
+        <v>8251400</v>
       </c>
       <c r="H2071" s="2">
-        <v>76500</v>
+        <v>51800</v>
       </c>
       <c r="I2071" s="2">
-        <v>20800</v>
+        <v>12600</v>
       </c>
       <c r="J2071" s="2">
-        <v>3682900</v>
+        <v>8315800</v>
       </c>
       <c r="K2071" s="2">
-        <v>35615500</v>
+        <v>80196700</v>
       </c>
       <c r="L2071" s="2">
-        <v>37456950</v>
+        <v>84354600</v>
       </c>
       <c r="M2071" s="2">
-        <v>37456950</v>
+        <v>84354600</v>
       </c>
     </row>
     <row r="2072" spans="1:13">
@@ -85678,40 +85678,40 @@
         <v>2020</v>
       </c>
       <c r="B2072" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2072" s="2">
-        <v>14252200</v>
+        <v>32090300</v>
       </c>
       <c r="D2072" s="2">
-        <v>169100</v>
+        <v>0</v>
       </c>
       <c r="E2072" s="2">
-        <v>3601000</v>
+        <v>6791900</v>
       </c>
       <c r="F2072" s="2">
-        <v>18022300</v>
+        <v>38882200</v>
       </c>
       <c r="G2072" s="2">
-        <v>1528100</v>
+        <v>1326500</v>
       </c>
       <c r="H2072" s="2">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="I2072" s="2">
-        <v>307300</v>
+        <v>849200</v>
       </c>
       <c r="J2072" s="2">
-        <v>1925400</v>
+        <v>2175700</v>
       </c>
       <c r="K2072" s="2">
-        <v>19947700</v>
+        <v>41057900</v>
       </c>
       <c r="L2072" s="2">
-        <v>20910400</v>
+        <v>42145750</v>
       </c>
       <c r="M2072" s="2">
-        <v>20910400</v>
+        <v>42145750</v>
       </c>
     </row>
     <row r="2073" spans="1:13">
@@ -85719,40 +85719,40 @@
         <v>2020</v>
       </c>
       <c r="B2073" s="3" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C2073" s="2">
-        <v>68788300</v>
+        <v>58467700</v>
       </c>
       <c r="D2073" s="2">
         <v>0</v>
       </c>
       <c r="E2073" s="2">
-        <v>12028500</v>
+        <v>1640600</v>
       </c>
       <c r="F2073" s="2">
-        <v>80816800</v>
+        <v>60108300</v>
       </c>
       <c r="G2073" s="2">
-        <v>2744600</v>
+        <v>1316900</v>
       </c>
       <c r="H2073" s="2">
-        <v>0</v>
+        <v>149800</v>
       </c>
       <c r="I2073" s="2">
-        <v>1075700</v>
+        <v>184300</v>
       </c>
       <c r="J2073" s="2">
-        <v>3820300</v>
+        <v>1651000</v>
       </c>
       <c r="K2073" s="2">
-        <v>84637100</v>
+        <v>61759300</v>
       </c>
       <c r="L2073" s="2">
-        <v>86547250</v>
+        <v>62584800</v>
       </c>
       <c r="M2073" s="2">
-        <v>86547250</v>
+        <v>62584800</v>
       </c>
     </row>
     <row r="2074" spans="1:13">
@@ -85760,40 +85760,40 @@
         <v>2020</v>
       </c>
       <c r="B2074" s="3" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C2074" s="2">
-        <v>62820700</v>
+        <v>167722300</v>
       </c>
       <c r="D2074" s="2">
-        <v>0</v>
+        <v>821500</v>
       </c>
       <c r="E2074" s="2">
-        <v>61100</v>
+        <v>6431900</v>
       </c>
       <c r="F2074" s="2">
-        <v>62881800</v>
+        <v>174975700</v>
       </c>
       <c r="G2074" s="2">
-        <v>807300</v>
+        <v>19503200</v>
       </c>
       <c r="H2074" s="2">
-        <v>40300</v>
+        <v>627600</v>
       </c>
       <c r="I2074" s="2">
-        <v>0</v>
+        <v>1756600</v>
       </c>
       <c r="J2074" s="2">
-        <v>847600</v>
+        <v>21887400</v>
       </c>
       <c r="K2074" s="2">
-        <v>63729400</v>
+        <v>196863100</v>
       </c>
       <c r="L2074" s="2">
-        <v>64153200</v>
+        <v>207806800</v>
       </c>
       <c r="M2074" s="2">
-        <v>64153200</v>
+        <v>207806800</v>
       </c>
     </row>
     <row r="2075" spans="1:13">
@@ -85801,40 +85801,40 @@
         <v>2020</v>
       </c>
       <c r="B2075" s="3" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C2075" s="2">
-        <v>26352300</v>
+        <v>28404200</v>
       </c>
       <c r="D2075" s="2">
         <v>0</v>
       </c>
       <c r="E2075" s="2">
-        <v>41000</v>
+        <v>3528400</v>
       </c>
       <c r="F2075" s="2">
-        <v>26393300</v>
+        <v>31932600</v>
       </c>
       <c r="G2075" s="2">
-        <v>514300</v>
+        <v>3585600</v>
       </c>
       <c r="H2075" s="2">
-        <v>2700</v>
+        <v>76500</v>
       </c>
       <c r="I2075" s="2">
-        <v>0</v>
+        <v>20800</v>
       </c>
       <c r="J2075" s="2">
-        <v>517000</v>
+        <v>3682900</v>
       </c>
       <c r="K2075" s="2">
-        <v>26910300</v>
+        <v>35615500</v>
       </c>
       <c r="L2075" s="2">
-        <v>27168800</v>
+        <v>37456950</v>
       </c>
       <c r="M2075" s="2">
-        <v>27168800</v>
+        <v>37456950</v>
       </c>
     </row>
     <row r="2076" spans="1:13">
@@ -85842,40 +85842,40 @@
         <v>2020</v>
       </c>
       <c r="B2076" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C2076" s="2">
-        <v>24259200</v>
+        <v>14252200</v>
       </c>
       <c r="D2076" s="2">
-        <v>0</v>
+        <v>169100</v>
       </c>
       <c r="E2076" s="2">
-        <v>65500</v>
+        <v>3601000</v>
       </c>
       <c r="F2076" s="2">
-        <v>24324700</v>
+        <v>18022300</v>
       </c>
       <c r="G2076" s="2">
-        <v>1572300</v>
+        <v>1528100</v>
       </c>
       <c r="H2076" s="2">
-        <v>58300</v>
+        <v>90000</v>
       </c>
       <c r="I2076" s="2">
-        <v>3300</v>
+        <v>307300</v>
       </c>
       <c r="J2076" s="2">
-        <v>1633900</v>
+        <v>1925400</v>
       </c>
       <c r="K2076" s="2">
-        <v>25958600</v>
+        <v>19947700</v>
       </c>
       <c r="L2076" s="2">
-        <v>26775550</v>
+        <v>20910400</v>
       </c>
       <c r="M2076" s="2">
-        <v>26775550</v>
+        <v>20910400</v>
       </c>
     </row>
     <row r="2077" spans="1:13">
@@ -85883,40 +85883,40 @@
         <v>2020</v>
       </c>
       <c r="B2077" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2077" s="2">
-        <v>34416000</v>
+        <v>68788300</v>
       </c>
       <c r="D2077" s="2">
-        <v>217200</v>
+        <v>0</v>
       </c>
       <c r="E2077" s="2">
-        <v>6126700</v>
+        <v>12028500</v>
       </c>
       <c r="F2077" s="2">
-        <v>40759900</v>
+        <v>80816800</v>
       </c>
       <c r="G2077" s="2">
-        <v>6522600</v>
+        <v>2744600</v>
       </c>
       <c r="H2077" s="2">
-        <v>103000</v>
+        <v>0</v>
       </c>
       <c r="I2077" s="2">
-        <v>45200</v>
+        <v>1075700</v>
       </c>
       <c r="J2077" s="2">
-        <v>6670800</v>
+        <v>3820300</v>
       </c>
       <c r="K2077" s="2">
-        <v>47430700</v>
+        <v>84637100</v>
       </c>
       <c r="L2077" s="2">
-        <v>50766100</v>
+        <v>86547250</v>
       </c>
       <c r="M2077" s="2">
-        <v>50766100</v>
+        <v>86547250</v>
       </c>
     </row>
     <row r="2078" spans="1:13">
@@ -85924,40 +85924,40 @@
         <v>2020</v>
       </c>
       <c r="B2078" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C2078" s="2">
-        <v>8580500</v>
+        <v>62820700</v>
       </c>
       <c r="D2078" s="2">
         <v>0</v>
       </c>
       <c r="E2078" s="2">
-        <v>5000</v>
+        <v>61100</v>
       </c>
       <c r="F2078" s="2">
-        <v>8585500</v>
+        <v>62881800</v>
       </c>
       <c r="G2078" s="2">
-        <v>4036100</v>
+        <v>807300</v>
       </c>
       <c r="H2078" s="2">
-        <v>0</v>
+        <v>40300</v>
       </c>
       <c r="I2078" s="2">
         <v>0</v>
       </c>
       <c r="J2078" s="2">
-        <v>4036100</v>
+        <v>847600</v>
       </c>
       <c r="K2078" s="2">
-        <v>12621600</v>
+        <v>63729400</v>
       </c>
       <c r="L2078" s="2">
-        <v>14639650</v>
+        <v>64153200</v>
       </c>
       <c r="M2078" s="2">
-        <v>14639650</v>
+        <v>64153200</v>
       </c>
     </row>
     <row r="2079" spans="1:13">
@@ -85965,40 +85965,40 @@
         <v>2020</v>
       </c>
       <c r="B2079" s="3" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="C2079" s="2">
-        <v>291962900</v>
+        <v>26352300</v>
       </c>
       <c r="D2079" s="2">
         <v>0</v>
       </c>
       <c r="E2079" s="2">
-        <v>7419100</v>
+        <v>41000</v>
       </c>
       <c r="F2079" s="2">
-        <v>299382000</v>
+        <v>26393300</v>
       </c>
       <c r="G2079" s="2">
-        <v>12093200</v>
+        <v>514300</v>
       </c>
       <c r="H2079" s="2">
-        <v>1114000</v>
+        <v>2700</v>
       </c>
       <c r="I2079" s="2">
-        <v>3837400</v>
+        <v>0</v>
       </c>
       <c r="J2079" s="2">
-        <v>17044600</v>
+        <v>517000</v>
       </c>
       <c r="K2079" s="2">
-        <v>316426600</v>
+        <v>26910300</v>
       </c>
       <c r="L2079" s="2">
-        <v>324948900</v>
+        <v>27168800</v>
       </c>
       <c r="M2079" s="2">
-        <v>324948900</v>
+        <v>27168800</v>
       </c>
     </row>
     <row r="2080" spans="1:13">
@@ -86006,40 +86006,40 @@
         <v>2020</v>
       </c>
       <c r="B2080" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2080" s="2">
-        <v>9321200</v>
+        <v>24259200</v>
       </c>
       <c r="D2080" s="2">
         <v>0</v>
       </c>
       <c r="E2080" s="2">
-        <v>156100</v>
+        <v>65500</v>
       </c>
       <c r="F2080" s="2">
-        <v>9477300</v>
+        <v>24324700</v>
       </c>
       <c r="G2080" s="2">
-        <v>116700</v>
+        <v>1572300</v>
       </c>
       <c r="H2080" s="2">
-        <v>0</v>
+        <v>58300</v>
       </c>
       <c r="I2080" s="2">
-        <v>178700</v>
+        <v>3300</v>
       </c>
       <c r="J2080" s="2">
-        <v>295400</v>
+        <v>1633900</v>
       </c>
       <c r="K2080" s="2">
-        <v>9772700</v>
+        <v>25958600</v>
       </c>
       <c r="L2080" s="2">
-        <v>9920400</v>
+        <v>26775550</v>
       </c>
       <c r="M2080" s="2">
-        <v>9920400</v>
+        <v>26775550</v>
       </c>
     </row>
     <row r="2081" spans="1:13">
@@ -86047,40 +86047,40 @@
         <v>2020</v>
       </c>
       <c r="B2081" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2081" s="2">
-        <v>67088800</v>
+        <v>34416000</v>
       </c>
       <c r="D2081" s="2">
-        <v>157500</v>
+        <v>217200</v>
       </c>
       <c r="E2081" s="2">
-        <v>22057400</v>
+        <v>6126700</v>
       </c>
       <c r="F2081" s="2">
-        <v>89303700</v>
+        <v>40759900</v>
       </c>
       <c r="G2081" s="2">
-        <v>9886000</v>
+        <v>6522600</v>
       </c>
       <c r="H2081" s="2">
-        <v>474400</v>
+        <v>103000</v>
       </c>
       <c r="I2081" s="2">
-        <v>673700</v>
+        <v>45200</v>
       </c>
       <c r="J2081" s="2">
-        <v>11034100</v>
+        <v>6670800</v>
       </c>
       <c r="K2081" s="2">
-        <v>100337800</v>
+        <v>47430700</v>
       </c>
       <c r="L2081" s="2">
-        <v>105854850</v>
+        <v>50766100</v>
       </c>
       <c r="M2081" s="2">
-        <v>105854850</v>
+        <v>50766100</v>
       </c>
     </row>
     <row r="2082" spans="1:13">
@@ -86088,40 +86088,40 @@
         <v>2020</v>
       </c>
       <c r="B2082" s="3" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C2082" s="2">
-        <v>89074800</v>
+        <v>8580500</v>
       </c>
       <c r="D2082" s="2">
-        <v>277900</v>
+        <v>0</v>
       </c>
       <c r="E2082" s="2">
-        <v>16435700</v>
+        <v>5000</v>
       </c>
       <c r="F2082" s="2">
-        <v>105788400</v>
+        <v>8585500</v>
       </c>
       <c r="G2082" s="2">
-        <v>15031600</v>
+        <v>4036100</v>
       </c>
       <c r="H2082" s="2">
-        <v>440400</v>
+        <v>0</v>
       </c>
       <c r="I2082" s="2">
-        <v>622400</v>
+        <v>0</v>
       </c>
       <c r="J2082" s="2">
-        <v>16094400</v>
+        <v>4036100</v>
       </c>
       <c r="K2082" s="2">
-        <v>121882800</v>
+        <v>12621600</v>
       </c>
       <c r="L2082" s="2">
-        <v>129930000</v>
+        <v>14639650</v>
       </c>
       <c r="M2082" s="2">
-        <v>129930000</v>
+        <v>14639650</v>
       </c>
     </row>
     <row r="2083" spans="1:13">
@@ -86129,40 +86129,40 @@
         <v>2020</v>
       </c>
       <c r="B2083" s="3" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C2083" s="2">
-        <v>336943900</v>
+        <v>291962900</v>
       </c>
       <c r="D2083" s="2">
         <v>0</v>
       </c>
       <c r="E2083" s="2">
-        <v>9984600</v>
+        <v>7419100</v>
       </c>
       <c r="F2083" s="2">
-        <v>346928500</v>
+        <v>299382000</v>
       </c>
       <c r="G2083" s="2">
-        <v>4027400</v>
+        <v>12093200</v>
       </c>
       <c r="H2083" s="2">
-        <v>0</v>
+        <v>1114000</v>
       </c>
       <c r="I2083" s="2">
-        <v>30200</v>
+        <v>3837400</v>
       </c>
       <c r="J2083" s="2">
-        <v>4057600</v>
+        <v>17044600</v>
       </c>
       <c r="K2083" s="2">
-        <v>350986100</v>
+        <v>316426600</v>
       </c>
       <c r="L2083" s="2">
-        <v>353014900</v>
+        <v>324948900</v>
       </c>
       <c r="M2083" s="2">
-        <v>353014900</v>
+        <v>324948900</v>
       </c>
     </row>
     <row r="2084" spans="1:13">
@@ -86170,40 +86170,40 @@
         <v>2020</v>
       </c>
       <c r="B2084" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2084" s="2">
-        <v>48103300</v>
+        <v>9321200</v>
       </c>
       <c r="D2084" s="2">
         <v>0</v>
       </c>
       <c r="E2084" s="2">
-        <v>6100</v>
+        <v>156100</v>
       </c>
       <c r="F2084" s="2">
-        <v>48109400</v>
+        <v>9477300</v>
       </c>
       <c r="G2084" s="2">
-        <v>4281400</v>
+        <v>116700</v>
       </c>
       <c r="H2084" s="2">
         <v>0</v>
       </c>
       <c r="I2084" s="2">
-        <v>575000</v>
+        <v>178700</v>
       </c>
       <c r="J2084" s="2">
-        <v>4856400</v>
+        <v>295400</v>
       </c>
       <c r="K2084" s="2">
-        <v>52965800</v>
+        <v>9772700</v>
       </c>
       <c r="L2084" s="2">
-        <v>55394000</v>
+        <v>9920400</v>
       </c>
       <c r="M2084" s="2">
-        <v>55394000</v>
+        <v>9920400</v>
       </c>
     </row>
     <row r="2085" spans="1:13">
@@ -86211,40 +86211,40 @@
         <v>2020</v>
       </c>
       <c r="B2085" s="3" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C2085" s="2">
-        <v>72217000</v>
+        <v>67088800</v>
       </c>
       <c r="D2085" s="2">
-        <v>0</v>
+        <v>157500</v>
       </c>
       <c r="E2085" s="2">
-        <v>642800</v>
+        <v>22057400</v>
       </c>
       <c r="F2085" s="2">
-        <v>72859800</v>
+        <v>89303700</v>
       </c>
       <c r="G2085" s="2">
-        <v>2935600</v>
+        <v>9886000</v>
       </c>
       <c r="H2085" s="2">
-        <v>69800</v>
+        <v>474400</v>
       </c>
       <c r="I2085" s="2">
-        <v>622100</v>
+        <v>673700</v>
       </c>
       <c r="J2085" s="2">
-        <v>3627500</v>
+        <v>11034100</v>
       </c>
       <c r="K2085" s="2">
-        <v>76487300</v>
+        <v>100337800</v>
       </c>
       <c r="L2085" s="2">
-        <v>78301050</v>
+        <v>105854850</v>
       </c>
       <c r="M2085" s="2">
-        <v>78301050</v>
+        <v>105854850</v>
       </c>
     </row>
     <row r="2086" spans="1:13">
@@ -86252,40 +86252,40 @@
         <v>2020</v>
       </c>
       <c r="B2086" s="3" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C2086" s="2">
-        <v>35971600</v>
+        <v>89074800</v>
       </c>
       <c r="D2086" s="2">
-        <v>0</v>
+        <v>277900</v>
       </c>
       <c r="E2086" s="2">
-        <v>7059400</v>
+        <v>16435700</v>
       </c>
       <c r="F2086" s="2">
-        <v>43031000</v>
+        <v>105788400</v>
       </c>
       <c r="G2086" s="2">
-        <v>5575900</v>
+        <v>15031600</v>
       </c>
       <c r="H2086" s="2">
-        <v>71700</v>
+        <v>440400</v>
       </c>
       <c r="I2086" s="2">
-        <v>1268100</v>
+        <v>622400</v>
       </c>
       <c r="J2086" s="2">
-        <v>6915700</v>
+        <v>16094400</v>
       </c>
       <c r="K2086" s="2">
-        <v>49946700</v>
+        <v>121882800</v>
       </c>
       <c r="L2086" s="2">
-        <v>53404550</v>
+        <v>129930000</v>
       </c>
       <c r="M2086" s="2">
-        <v>53404550</v>
+        <v>129930000</v>
       </c>
     </row>
     <row r="2087" spans="1:13">
@@ -86293,40 +86293,40 @@
         <v>2020</v>
       </c>
       <c r="B2087" s="3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C2087" s="2">
-        <v>67370500</v>
+        <v>336943900</v>
       </c>
       <c r="D2087" s="2">
-        <v>207100</v>
+        <v>0</v>
       </c>
       <c r="E2087" s="2">
-        <v>24864400</v>
+        <v>9984600</v>
       </c>
       <c r="F2087" s="2">
-        <v>92442000</v>
+        <v>346928500</v>
       </c>
       <c r="G2087" s="2">
-        <v>16100800</v>
+        <v>4027400</v>
       </c>
       <c r="H2087" s="2">
-        <v>244600</v>
+        <v>0</v>
       </c>
       <c r="I2087" s="2">
-        <v>2028500</v>
+        <v>30200</v>
       </c>
       <c r="J2087" s="2">
-        <v>18373900</v>
+        <v>4057600</v>
       </c>
       <c r="K2087" s="2">
-        <v>110815900</v>
+        <v>350986100</v>
       </c>
       <c r="L2087" s="2">
-        <v>120002850</v>
+        <v>353014900</v>
       </c>
       <c r="M2087" s="2">
-        <v>120002850</v>
+        <v>353014900</v>
       </c>
     </row>
     <row r="2088" spans="1:13">
@@ -86334,40 +86334,40 @@
         <v>2020</v>
       </c>
       <c r="B2088" s="3" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="C2088" s="2">
-        <v>90615500</v>
+        <v>48103300</v>
       </c>
       <c r="D2088" s="2">
         <v>0</v>
       </c>
       <c r="E2088" s="2">
-        <v>7502700</v>
+        <v>6100</v>
       </c>
       <c r="F2088" s="2">
-        <v>98118200</v>
+        <v>48109400</v>
       </c>
       <c r="G2088" s="2">
-        <v>7767000</v>
+        <v>4281400</v>
       </c>
       <c r="H2088" s="2">
-        <v>77400</v>
+        <v>0</v>
       </c>
       <c r="I2088" s="2">
-        <v>8600</v>
+        <v>575000</v>
       </c>
       <c r="J2088" s="2">
-        <v>7853000</v>
+        <v>4856400</v>
       </c>
       <c r="K2088" s="2">
-        <v>105971200</v>
+        <v>52965800</v>
       </c>
       <c r="L2088" s="2">
-        <v>109897700</v>
+        <v>55394000</v>
       </c>
       <c r="M2088" s="2">
-        <v>109897700</v>
+        <v>55394000</v>
       </c>
     </row>
     <row r="2089" spans="1:13">
@@ -86375,40 +86375,40 @@
         <v>2020</v>
       </c>
       <c r="B2089" s="3" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="C2089" s="2">
-        <v>67418800</v>
+        <v>72217000</v>
       </c>
       <c r="D2089" s="2">
         <v>0</v>
       </c>
       <c r="E2089" s="2">
-        <v>10664400</v>
+        <v>642800</v>
       </c>
       <c r="F2089" s="2">
-        <v>78083200</v>
+        <v>72859800</v>
       </c>
       <c r="G2089" s="2">
-        <v>9247300</v>
+        <v>2935600</v>
       </c>
       <c r="H2089" s="2">
-        <v>121600</v>
+        <v>69800</v>
       </c>
       <c r="I2089" s="2">
-        <v>224500</v>
+        <v>622100</v>
       </c>
       <c r="J2089" s="2">
-        <v>9593400</v>
+        <v>3627500</v>
       </c>
       <c r="K2089" s="2">
-        <v>87676600</v>
+        <v>76487300</v>
       </c>
       <c r="L2089" s="2">
-        <v>92473300</v>
+        <v>78301050</v>
       </c>
       <c r="M2089" s="2">
-        <v>92473300</v>
+        <v>78301050</v>
       </c>
     </row>
     <row r="2090" spans="1:13">
@@ -86416,40 +86416,40 @@
         <v>2020</v>
       </c>
       <c r="B2090" s="3" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="C2090" s="2">
-        <v>33079900</v>
+        <v>35971600</v>
       </c>
       <c r="D2090" s="2">
         <v>0</v>
       </c>
       <c r="E2090" s="2">
-        <v>12291800</v>
+        <v>7059400</v>
       </c>
       <c r="F2090" s="2">
-        <v>45371700</v>
+        <v>43031000</v>
       </c>
       <c r="G2090" s="2">
-        <v>10309500</v>
+        <v>5575900</v>
       </c>
       <c r="H2090" s="2">
-        <v>162300</v>
+        <v>71700</v>
       </c>
       <c r="I2090" s="2">
-        <v>233400</v>
+        <v>1268100</v>
       </c>
       <c r="J2090" s="2">
-        <v>10705200</v>
+        <v>6915700</v>
       </c>
       <c r="K2090" s="2">
-        <v>56076900</v>
+        <v>49946700</v>
       </c>
       <c r="L2090" s="2">
-        <v>61429500</v>
+        <v>53404550</v>
       </c>
       <c r="M2090" s="2">
-        <v>61429500</v>
+        <v>53404550</v>
       </c>
     </row>
     <row r="2091" spans="1:13">
@@ -86457,40 +86457,40 @@
         <v>2020</v>
       </c>
       <c r="B2091" s="3" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C2091" s="2">
-        <v>40414400</v>
+        <v>67370500</v>
       </c>
       <c r="D2091" s="2">
-        <v>0</v>
+        <v>207100</v>
       </c>
       <c r="E2091" s="2">
-        <v>2560300</v>
+        <v>24864400</v>
       </c>
       <c r="F2091" s="2">
-        <v>42974700</v>
+        <v>92442000</v>
       </c>
       <c r="G2091" s="2">
-        <v>739600</v>
+        <v>16100800</v>
       </c>
       <c r="H2091" s="2">
-        <v>0</v>
+        <v>244600</v>
       </c>
       <c r="I2091" s="2">
-        <v>1000</v>
+        <v>2028500</v>
       </c>
       <c r="J2091" s="2">
-        <v>740600</v>
+        <v>18373900</v>
       </c>
       <c r="K2091" s="2">
-        <v>43715300</v>
+        <v>110815900</v>
       </c>
       <c r="L2091" s="2">
-        <v>44085600</v>
+        <v>120002850</v>
       </c>
       <c r="M2091" s="2">
-        <v>44085600</v>
+        <v>120002850</v>
       </c>
     </row>
     <row r="2092" spans="1:13">
@@ -86498,40 +86498,40 @@
         <v>2020</v>
       </c>
       <c r="B2092" s="3" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C2092" s="2">
-        <v>14979400</v>
+        <v>90615500</v>
       </c>
       <c r="D2092" s="2">
         <v>0</v>
       </c>
       <c r="E2092" s="2">
-        <v>3959100</v>
+        <v>7502700</v>
       </c>
       <c r="F2092" s="2">
-        <v>18938500</v>
+        <v>98118200</v>
       </c>
       <c r="G2092" s="2">
-        <v>3529600</v>
+        <v>7767000</v>
       </c>
       <c r="H2092" s="2">
-        <v>75800</v>
+        <v>77400</v>
       </c>
       <c r="I2092" s="2">
-        <v>520000</v>
+        <v>8600</v>
       </c>
       <c r="J2092" s="2">
-        <v>4125400</v>
+        <v>7853000</v>
       </c>
       <c r="K2092" s="2">
-        <v>23063900</v>
+        <v>105971200</v>
       </c>
       <c r="L2092" s="2">
-        <v>25126600</v>
+        <v>109897700</v>
       </c>
       <c r="M2092" s="2">
-        <v>25126600</v>
+        <v>109897700</v>
       </c>
     </row>
     <row r="2093" spans="1:13">
@@ -86539,40 +86539,40 @@
         <v>2020</v>
       </c>
       <c r="B2093" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2093" s="2">
-        <v>59762400</v>
+        <v>67418800</v>
       </c>
       <c r="D2093" s="2">
         <v>0</v>
       </c>
       <c r="E2093" s="2">
-        <v>17410300</v>
+        <v>10664400</v>
       </c>
       <c r="F2093" s="2">
-        <v>77172700</v>
+        <v>78083200</v>
       </c>
       <c r="G2093" s="2">
-        <v>4952500</v>
+        <v>9247300</v>
       </c>
       <c r="H2093" s="2">
-        <v>120800</v>
+        <v>121600</v>
       </c>
       <c r="I2093" s="2">
-        <v>91900</v>
+        <v>224500</v>
       </c>
       <c r="J2093" s="2">
-        <v>5165200</v>
+        <v>9593400</v>
       </c>
       <c r="K2093" s="2">
-        <v>82337900</v>
+        <v>87676600</v>
       </c>
       <c r="L2093" s="2">
-        <v>84920500</v>
+        <v>92473300</v>
       </c>
       <c r="M2093" s="2">
-        <v>84920500</v>
+        <v>92473300</v>
       </c>
     </row>
     <row r="2094" spans="1:13">
@@ -86580,40 +86580,40 @@
         <v>2020</v>
       </c>
       <c r="B2094" s="3" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C2094" s="2">
-        <v>19490500</v>
+        <v>33079900</v>
       </c>
       <c r="D2094" s="2">
         <v>0</v>
       </c>
       <c r="E2094" s="2">
-        <v>1760800</v>
+        <v>12291800</v>
       </c>
       <c r="F2094" s="2">
-        <v>21251300</v>
+        <v>45371700</v>
       </c>
       <c r="G2094" s="2">
-        <v>559100</v>
+        <v>10309500</v>
       </c>
       <c r="H2094" s="2">
-        <v>0</v>
+        <v>162300</v>
       </c>
       <c r="I2094" s="2">
-        <v>317900</v>
+        <v>233400</v>
       </c>
       <c r="J2094" s="2">
-        <v>877000</v>
+        <v>10705200</v>
       </c>
       <c r="K2094" s="2">
-        <v>22128300</v>
+        <v>56076900</v>
       </c>
       <c r="L2094" s="2">
-        <v>22566800</v>
+        <v>61429500</v>
       </c>
       <c r="M2094" s="2">
-        <v>22566800</v>
+        <v>61429500</v>
       </c>
     </row>
     <row r="2095" spans="1:13">
@@ -86621,40 +86621,40 @@
         <v>2020</v>
       </c>
       <c r="B2095" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C2095" s="2">
-        <v>32653200</v>
+        <v>40414400</v>
       </c>
       <c r="D2095" s="2">
         <v>0</v>
       </c>
       <c r="E2095" s="2">
-        <v>5064300</v>
+        <v>2560300</v>
       </c>
       <c r="F2095" s="2">
-        <v>37717500</v>
+        <v>42974700</v>
       </c>
       <c r="G2095" s="2">
-        <v>1171600</v>
+        <v>739600</v>
       </c>
       <c r="H2095" s="2">
-        <v>38500</v>
+        <v>0</v>
       </c>
       <c r="I2095" s="2">
-        <v>635100</v>
+        <v>1000</v>
       </c>
       <c r="J2095" s="2">
-        <v>1845200</v>
+        <v>740600</v>
       </c>
       <c r="K2095" s="2">
-        <v>39562700</v>
+        <v>43715300</v>
       </c>
       <c r="L2095" s="2">
-        <v>40485300</v>
+        <v>44085600</v>
       </c>
       <c r="M2095" s="2">
-        <v>40485300</v>
+        <v>44085600</v>
       </c>
     </row>
     <row r="2096" spans="1:13">
@@ -86662,40 +86662,40 @@
         <v>2020</v>
       </c>
       <c r="B2096" s="3" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C2096" s="2">
-        <v>37300700</v>
+        <v>14979400</v>
       </c>
       <c r="D2096" s="2">
-        <v>311600</v>
+        <v>0</v>
       </c>
       <c r="E2096" s="2">
-        <v>11800000</v>
+        <v>3959100</v>
       </c>
       <c r="F2096" s="2">
-        <v>49412300</v>
+        <v>18938500</v>
       </c>
       <c r="G2096" s="2">
-        <v>4814300</v>
+        <v>3529600</v>
       </c>
       <c r="H2096" s="2">
-        <v>90600</v>
+        <v>75800</v>
       </c>
       <c r="I2096" s="2">
-        <v>176600</v>
+        <v>520000</v>
       </c>
       <c r="J2096" s="2">
-        <v>5081500</v>
+        <v>4125400</v>
       </c>
       <c r="K2096" s="2">
-        <v>54493800</v>
+        <v>23063900</v>
       </c>
       <c r="L2096" s="2">
-        <v>57034550</v>
+        <v>25126600</v>
       </c>
       <c r="M2096" s="2">
-        <v>57034550</v>
+        <v>25126600</v>
       </c>
     </row>
     <row r="2097" spans="1:13">
@@ -86703,40 +86703,40 @@
         <v>2020</v>
       </c>
       <c r="B2097" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C2097" s="2">
-        <v>96949000</v>
+        <v>59762400</v>
       </c>
       <c r="D2097" s="2">
         <v>0</v>
       </c>
       <c r="E2097" s="2">
-        <v>4595400</v>
+        <v>17410300</v>
       </c>
       <c r="F2097" s="2">
-        <v>101544400</v>
+        <v>77172700</v>
       </c>
       <c r="G2097" s="2">
-        <v>7814700</v>
+        <v>4952500</v>
       </c>
       <c r="H2097" s="2">
-        <v>70100</v>
+        <v>120800</v>
       </c>
       <c r="I2097" s="2">
-        <v>0</v>
+        <v>91900</v>
       </c>
       <c r="J2097" s="2">
-        <v>7884800</v>
+        <v>5165200</v>
       </c>
       <c r="K2097" s="2">
-        <v>109429200</v>
+        <v>82337900</v>
       </c>
       <c r="L2097" s="2">
-        <v>113371600</v>
+        <v>84920500</v>
       </c>
       <c r="M2097" s="2">
-        <v>113371600</v>
+        <v>84920500</v>
       </c>
     </row>
     <row r="2098" spans="1:13">
@@ -86744,40 +86744,40 @@
         <v>2020</v>
       </c>
       <c r="B2098" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C2098" s="2">
-        <v>41500100</v>
+        <v>19490500</v>
       </c>
       <c r="D2098" s="2">
         <v>0</v>
       </c>
       <c r="E2098" s="2">
-        <v>3460300</v>
+        <v>1760800</v>
       </c>
       <c r="F2098" s="2">
-        <v>44960400</v>
+        <v>21251300</v>
       </c>
       <c r="G2098" s="2">
-        <v>4145000</v>
+        <v>559100</v>
       </c>
       <c r="H2098" s="2">
-        <v>46800</v>
+        <v>0</v>
       </c>
       <c r="I2098" s="2">
-        <v>21300</v>
+        <v>317900</v>
       </c>
       <c r="J2098" s="2">
-        <v>4213100</v>
+        <v>877000</v>
       </c>
       <c r="K2098" s="2">
-        <v>49173500</v>
+        <v>22128300</v>
       </c>
       <c r="L2098" s="2">
-        <v>51280050</v>
+        <v>22566800</v>
       </c>
       <c r="M2098" s="2">
-        <v>51280050</v>
+        <v>22566800</v>
       </c>
     </row>
     <row r="2099" spans="1:13">
@@ -86785,40 +86785,40 @@
         <v>2020</v>
       </c>
       <c r="B2099" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C2099" s="2">
-        <v>20412300</v>
+        <v>32653200</v>
       </c>
       <c r="D2099" s="2">
         <v>0</v>
       </c>
       <c r="E2099" s="2">
-        <v>10500</v>
+        <v>5064300</v>
       </c>
       <c r="F2099" s="2">
-        <v>20422800</v>
+        <v>37717500</v>
       </c>
       <c r="G2099" s="2">
-        <v>277400</v>
+        <v>1171600</v>
       </c>
       <c r="H2099" s="2">
-        <v>44100</v>
+        <v>38500</v>
       </c>
       <c r="I2099" s="2">
-        <v>36500</v>
+        <v>635100</v>
       </c>
       <c r="J2099" s="2">
-        <v>358000</v>
+        <v>1845200</v>
       </c>
       <c r="K2099" s="2">
-        <v>20780800</v>
+        <v>39562700</v>
       </c>
       <c r="L2099" s="2">
-        <v>20959800</v>
+        <v>40485300</v>
       </c>
       <c r="M2099" s="2">
-        <v>20959800</v>
+        <v>40485300</v>
       </c>
     </row>
     <row r="2100" spans="1:13">
@@ -86826,40 +86826,40 @@
         <v>2020</v>
       </c>
       <c r="B2100" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C2100" s="2">
-        <v>35649800</v>
+        <v>37300700</v>
       </c>
       <c r="D2100" s="2">
-        <v>107400</v>
+        <v>311600</v>
       </c>
       <c r="E2100" s="2">
-        <v>17342900</v>
+        <v>11800000</v>
       </c>
       <c r="F2100" s="2">
-        <v>53100100</v>
+        <v>49412300</v>
       </c>
       <c r="G2100" s="2">
-        <v>5242500</v>
+        <v>4814300</v>
       </c>
       <c r="H2100" s="2">
-        <v>83700</v>
+        <v>90600</v>
       </c>
       <c r="I2100" s="2">
-        <v>10200</v>
+        <v>176600</v>
       </c>
       <c r="J2100" s="2">
-        <v>5336400</v>
+        <v>5081500</v>
       </c>
       <c r="K2100" s="2">
-        <v>58436500</v>
+        <v>54493800</v>
       </c>
       <c r="L2100" s="2">
-        <v>61104700</v>
+        <v>57034550</v>
       </c>
       <c r="M2100" s="2">
-        <v>61104700</v>
+        <v>57034550</v>
       </c>
     </row>
     <row r="2101" spans="1:13">
@@ -86867,40 +86867,40 @@
         <v>2020</v>
       </c>
       <c r="B2101" s="3" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="C2101" s="2">
-        <v>37581200</v>
+        <v>96949000</v>
       </c>
       <c r="D2101" s="2">
         <v>0</v>
       </c>
       <c r="E2101" s="2">
-        <v>3509200</v>
+        <v>4595400</v>
       </c>
       <c r="F2101" s="2">
-        <v>41090400</v>
+        <v>101544400</v>
       </c>
       <c r="G2101" s="2">
-        <v>1786100</v>
+        <v>7814700</v>
       </c>
       <c r="H2101" s="2">
-        <v>51900</v>
+        <v>70100</v>
       </c>
       <c r="I2101" s="2">
-        <v>504800</v>
+        <v>0</v>
       </c>
       <c r="J2101" s="2">
-        <v>2342800</v>
+        <v>7884800</v>
       </c>
       <c r="K2101" s="2">
-        <v>43433200</v>
+        <v>109429200</v>
       </c>
       <c r="L2101" s="2">
-        <v>44604600</v>
+        <v>113371600</v>
       </c>
       <c r="M2101" s="2">
-        <v>44604600</v>
+        <v>113371600</v>
       </c>
     </row>
     <row r="2102" spans="1:13">
@@ -86908,40 +86908,40 @@
         <v>2020</v>
       </c>
       <c r="B2102" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C2102" s="2">
-        <v>27288600</v>
+        <v>41500100</v>
       </c>
       <c r="D2102" s="2">
         <v>0</v>
       </c>
       <c r="E2102" s="2">
-        <v>3815500</v>
+        <v>3460300</v>
       </c>
       <c r="F2102" s="2">
-        <v>31104100</v>
+        <v>44960400</v>
       </c>
       <c r="G2102" s="2">
-        <v>1934700</v>
+        <v>4145000</v>
       </c>
       <c r="H2102" s="2">
-        <v>0</v>
+        <v>46800</v>
       </c>
       <c r="I2102" s="2">
-        <v>0</v>
+        <v>21300</v>
       </c>
       <c r="J2102" s="2">
-        <v>1934700</v>
+        <v>4213100</v>
       </c>
       <c r="K2102" s="2">
-        <v>33038800</v>
+        <v>49173500</v>
       </c>
       <c r="L2102" s="2">
-        <v>34006150</v>
+        <v>51280050</v>
       </c>
       <c r="M2102" s="2">
-        <v>34006150</v>
+        <v>51280050</v>
       </c>
     </row>
     <row r="2103" spans="1:13">
@@ -86949,40 +86949,40 @@
         <v>2020</v>
       </c>
       <c r="B2103" s="3" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="C2103" s="2">
-        <v>129411300</v>
+        <v>20412300</v>
       </c>
       <c r="D2103" s="2">
         <v>0</v>
       </c>
       <c r="E2103" s="2">
-        <v>15762500</v>
+        <v>10500</v>
       </c>
       <c r="F2103" s="2">
-        <v>145173800</v>
+        <v>20422800</v>
       </c>
       <c r="G2103" s="2">
-        <v>23105500</v>
+        <v>277400</v>
       </c>
       <c r="H2103" s="2">
-        <v>83400</v>
+        <v>44100</v>
       </c>
       <c r="I2103" s="2">
-        <v>738000</v>
+        <v>36500</v>
       </c>
       <c r="J2103" s="2">
-        <v>23926900</v>
+        <v>358000</v>
       </c>
       <c r="K2103" s="2">
-        <v>169100700</v>
+        <v>20780800</v>
       </c>
       <c r="L2103" s="2">
-        <v>181064150</v>
+        <v>20959800</v>
       </c>
       <c r="M2103" s="2">
-        <v>181064150</v>
+        <v>20959800</v>
       </c>
     </row>
     <row r="2104" spans="1:13">
@@ -86990,40 +86990,40 @@
         <v>2020</v>
       </c>
       <c r="B2104" s="3" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="C2104" s="2">
-        <v>18885200</v>
+        <v>35649800</v>
       </c>
       <c r="D2104" s="2">
-        <v>0</v>
+        <v>107400</v>
       </c>
       <c r="E2104" s="2">
-        <v>1265100</v>
+        <v>17342900</v>
       </c>
       <c r="F2104" s="2">
-        <v>20150300</v>
+        <v>53100100</v>
       </c>
       <c r="G2104" s="2">
-        <v>1234600</v>
+        <v>5242500</v>
       </c>
       <c r="H2104" s="2">
-        <v>0</v>
+        <v>83700</v>
       </c>
       <c r="I2104" s="2">
-        <v>209200</v>
+        <v>10200</v>
       </c>
       <c r="J2104" s="2">
-        <v>1443800</v>
+        <v>5336400</v>
       </c>
       <c r="K2104" s="2">
-        <v>21594100</v>
+        <v>58436500</v>
       </c>
       <c r="L2104" s="2">
-        <v>22316000</v>
+        <v>61104700</v>
       </c>
       <c r="M2104" s="2">
-        <v>22316000</v>
+        <v>61104700</v>
       </c>
     </row>
     <row r="2105" spans="1:13">
@@ -87031,40 +87031,40 @@
         <v>2020</v>
       </c>
       <c r="B2105" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C2105" s="2">
-        <v>19026100</v>
+        <v>37581200</v>
       </c>
       <c r="D2105" s="2">
         <v>0</v>
       </c>
       <c r="E2105" s="2">
-        <v>7138900</v>
+        <v>3509200</v>
       </c>
       <c r="F2105" s="2">
-        <v>26165000</v>
+        <v>41090400</v>
       </c>
       <c r="G2105" s="2">
-        <v>2132800</v>
+        <v>1786100</v>
       </c>
       <c r="H2105" s="2">
-        <v>89900</v>
+        <v>51900</v>
       </c>
       <c r="I2105" s="2">
-        <v>441400</v>
+        <v>504800</v>
       </c>
       <c r="J2105" s="2">
-        <v>2664100</v>
+        <v>2342800</v>
       </c>
       <c r="K2105" s="2">
-        <v>28829100</v>
+        <v>43433200</v>
       </c>
       <c r="L2105" s="2">
-        <v>30161150</v>
+        <v>44604600</v>
       </c>
       <c r="M2105" s="2">
-        <v>30161150</v>
+        <v>44604600</v>
       </c>
     </row>
     <row r="2106" spans="1:13">
@@ -87072,22 +87072,22 @@
         <v>2020</v>
       </c>
       <c r="B2106" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C2106" s="2">
-        <v>83748100</v>
+        <v>27288600</v>
       </c>
       <c r="D2106" s="2">
         <v>0</v>
       </c>
       <c r="E2106" s="2">
-        <v>5245100</v>
+        <v>3815500</v>
       </c>
       <c r="F2106" s="2">
-        <v>88993200</v>
+        <v>31104100</v>
       </c>
       <c r="G2106" s="2">
-        <v>9106200</v>
+        <v>1934700</v>
       </c>
       <c r="H2106" s="2">
         <v>0</v>
@@ -87096,16 +87096,16 @@
         <v>0</v>
       </c>
       <c r="J2106" s="2">
-        <v>9106200</v>
+        <v>1934700</v>
       </c>
       <c r="K2106" s="2">
-        <v>98099400</v>
+        <v>33038800</v>
       </c>
       <c r="L2106" s="2">
-        <v>102652500</v>
+        <v>34006150</v>
       </c>
       <c r="M2106" s="2">
-        <v>102652500</v>
+        <v>34006150</v>
       </c>
     </row>
     <row r="2107" spans="1:13">
@@ -87113,40 +87113,40 @@
         <v>2020</v>
       </c>
       <c r="B2107" s="3" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="C2107" s="2">
-        <v>55449500</v>
+        <v>129411300</v>
       </c>
       <c r="D2107" s="2">
         <v>0</v>
       </c>
       <c r="E2107" s="2">
-        <v>307300</v>
+        <v>15762500</v>
       </c>
       <c r="F2107" s="2">
-        <v>55756800</v>
+        <v>145173800</v>
       </c>
       <c r="G2107" s="2">
-        <v>864200</v>
+        <v>23105500</v>
       </c>
       <c r="H2107" s="2">
-        <v>72700</v>
+        <v>83400</v>
       </c>
       <c r="I2107" s="2">
-        <v>2799200</v>
+        <v>738000</v>
       </c>
       <c r="J2107" s="2">
-        <v>3736100</v>
+        <v>23926900</v>
       </c>
       <c r="K2107" s="2">
-        <v>59492900</v>
+        <v>169100700</v>
       </c>
       <c r="L2107" s="2">
-        <v>61360950</v>
+        <v>181064150</v>
       </c>
       <c r="M2107" s="2">
-        <v>61360950</v>
+        <v>181064150</v>
       </c>
     </row>
     <row r="2108" spans="1:13">
@@ -87154,39 +87154,203 @@
         <v>2020</v>
       </c>
       <c r="B2108" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2108" s="2">
+        <v>18885200</v>
+      </c>
+      <c r="D2108" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2108" s="2">
+        <v>1265100</v>
+      </c>
+      <c r="F2108" s="2">
+        <v>20150300</v>
+      </c>
+      <c r="G2108" s="2">
+        <v>1234600</v>
+      </c>
+      <c r="H2108" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2108" s="2">
+        <v>209200</v>
+      </c>
+      <c r="J2108" s="2">
+        <v>1443800</v>
+      </c>
+      <c r="K2108" s="2">
+        <v>21594100</v>
+      </c>
+      <c r="L2108" s="2">
+        <v>22316000</v>
+      </c>
+      <c r="M2108" s="2">
+        <v>22316000</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:13">
+      <c r="A2109" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B2109" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2109" s="2">
+        <v>19026100</v>
+      </c>
+      <c r="D2109" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2109" s="2">
+        <v>7138900</v>
+      </c>
+      <c r="F2109" s="2">
+        <v>26165000</v>
+      </c>
+      <c r="G2109" s="2">
+        <v>2132800</v>
+      </c>
+      <c r="H2109" s="2">
+        <v>89900</v>
+      </c>
+      <c r="I2109" s="2">
+        <v>441400</v>
+      </c>
+      <c r="J2109" s="2">
+        <v>2664100</v>
+      </c>
+      <c r="K2109" s="2">
+        <v>28829100</v>
+      </c>
+      <c r="L2109" s="2">
+        <v>30161150</v>
+      </c>
+      <c r="M2109" s="2">
+        <v>30161150</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:13">
+      <c r="A2110" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B2110" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2110" s="2">
+        <v>83748100</v>
+      </c>
+      <c r="D2110" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2110" s="2">
+        <v>5245100</v>
+      </c>
+      <c r="F2110" s="2">
+        <v>88993200</v>
+      </c>
+      <c r="G2110" s="2">
+        <v>9106200</v>
+      </c>
+      <c r="H2110" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2110" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2110" s="2">
+        <v>9106200</v>
+      </c>
+      <c r="K2110" s="2">
+        <v>98099400</v>
+      </c>
+      <c r="L2110" s="2">
+        <v>102652500</v>
+      </c>
+      <c r="M2110" s="2">
+        <v>102652500</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:13">
+      <c r="A2111" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B2111" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2111" s="2">
+        <v>55449500</v>
+      </c>
+      <c r="D2111" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2111" s="2">
+        <v>307300</v>
+      </c>
+      <c r="F2111" s="2">
+        <v>55756800</v>
+      </c>
+      <c r="G2111" s="2">
+        <v>864200</v>
+      </c>
+      <c r="H2111" s="2">
+        <v>72700</v>
+      </c>
+      <c r="I2111" s="2">
+        <v>2799200</v>
+      </c>
+      <c r="J2111" s="2">
+        <v>3736100</v>
+      </c>
+      <c r="K2111" s="2">
+        <v>59492900</v>
+      </c>
+      <c r="L2111" s="2">
+        <v>61360950</v>
+      </c>
+      <c r="M2111" s="2">
+        <v>61360950</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:13">
+      <c r="A2112" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B2112" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C2108" s="2">
+      <c r="C2112" s="2">
         <v>3600299200</v>
       </c>
-      <c r="D2108" s="2">
+      <c r="D2112" s="2">
         <v>13880300</v>
       </c>
-      <c r="E2108" s="2">
+      <c r="E2112" s="2">
         <v>356612600</v>
       </c>
-      <c r="F2108" s="2">
+      <c r="F2112" s="2">
         <v>3970792100</v>
       </c>
-      <c r="G2108" s="2">
+      <c r="G2112" s="2">
         <v>598679200</v>
       </c>
-      <c r="H2108" s="2">
+      <c r="H2112" s="2">
         <v>43448500</v>
       </c>
-      <c r="I2108" s="2">
+      <c r="I2112" s="2">
         <v>33785100</v>
       </c>
-      <c r="J2108" s="2">
+      <c r="J2112" s="2">
         <v>675912800</v>
       </c>
-      <c r="K2108" s="2">
+      <c r="K2112" s="2">
         <v>4646704900</v>
       </c>
-      <c r="L2108" s="2">
+      <c r="L2112" s="2">
         <v>4984661300</v>
       </c>
-      <c r="M2108" s="2">
+      <c r="M2112" s="2">
         <v>4984661300</v>
       </c>
     </row>
